--- a/analysis/20-40-80.xlsx
+++ b/analysis/20-40-80.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshi A. Furukawa\Dropbox\AAAAA\SYSTEMATIC REVIEWS\2017-06-30 GRISELDA\2019-06-XX fixed vs flexible regimens\analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tshkf\Dropbox\AAAAA\SYSTEMATIC REVIEWS\2017-06-30 GRISELDA\2019-10-27 fixed vs flexible regimens\analysis3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FFFD3F-B209-4ADF-8239-2C2B719560A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4D5D4C-8B3E-4B19-9A02-82944A837A77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="14016" xr2:uid="{AC187675-37B5-474A-8450-125E31DB076A}"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="38620" windowHeight="21220" xr2:uid="{AC187675-37B5-474A-8450-125E31DB076A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1913" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="165">
   <si>
     <t>StudyID</t>
   </si>
@@ -409,9 +410,6 @@
     <t>MY-1043/BRL-029060/115</t>
   </si>
   <si>
-    <t>Fava1998</t>
-  </si>
-  <si>
     <t>Rudolph1999</t>
   </si>
   <si>
@@ -455,9 +453,6 @@
   </si>
   <si>
     <t>MY-1042/BRL-029060/CPMS-251</t>
-  </si>
-  <si>
-    <t>Golden2002a (29060/448)</t>
   </si>
   <si>
     <t>HAMD18</t>
@@ -520,6 +515,26 @@
   </si>
   <si>
     <t>venlafaxine</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Golden2002a (29060/448) CR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Golden2002a (29060/448)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Golden2002b (29060/449) CR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Higuchi2011 (PCR112810, NCT00866294) CR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cunningham1997 (VEN XR 208 - FDA) XR</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -527,32 +542,62 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -560,18 +605,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="メモ" xfId="1" builtinId="10"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -884,15 +960,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7A5853-2FF2-432C-8B7B-6F3D6E421E3A}">
-  <dimension ref="A1:AU76"/>
+  <dimension ref="A1:AU77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="19.58203125" customWidth="1"/>
+    <col min="17" max="24" width="8.6640625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:47">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -941,28 +1024,28 @@
       <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
       <c r="Y1" t="s">
@@ -1035,7 +1118,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:47">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>116</v>
       </c>
@@ -1049,7 +1132,7 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F2" t="s">
         <v>86</v>
@@ -1084,28 +1167,28 @@
       <c r="P2" t="s">
         <v>48</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="2">
         <v>91</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="2">
         <v>40</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="2">
         <v>7</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="2">
         <v>82</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="2">
         <v>-9.58</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="2">
         <v>9.84</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="2">
         <v>19</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" s="2" t="s">
         <v>48</v>
       </c>
       <c r="Y2" t="s">
@@ -1178,7 +1261,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:47">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -1222,33 +1305,33 @@
         <v>8.73</v>
       </c>
       <c r="O3">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P3">
         <v>27</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="2">
         <v>64.5</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="2">
         <v>12</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="2">
         <v>2</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="2">
         <v>62.5</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="2">
         <v>-9.6</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="2">
         <v>8.94</v>
       </c>
-      <c r="W3">
-        <v>23.5</v>
-      </c>
-      <c r="X3">
+      <c r="W3" s="2">
+        <v>25.5</v>
+      </c>
+      <c r="X3" s="2">
         <v>11</v>
       </c>
       <c r="Y3" t="s">
@@ -1321,7 +1404,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:47">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>87</v>
       </c>
@@ -1370,28 +1453,28 @@
       <c r="P4">
         <v>63</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="2">
         <v>77</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="2">
         <v>7.5</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="2">
         <v>2</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="2">
         <v>77</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="2">
         <v>-12.1</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="2">
         <v>8.69</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="2">
         <v>33.5</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="2">
         <v>31.5</v>
       </c>
       <c r="Y4" t="s">
@@ -1464,7 +1547,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:47">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>118</v>
       </c>
@@ -1478,7 +1561,7 @@
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F5" t="s">
         <v>86</v>
@@ -1513,28 +1596,28 @@
       <c r="P5">
         <v>21</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="2">
         <v>54</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="2">
         <v>8</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="2">
         <v>4</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="2">
         <v>53.5</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="2">
         <v>-10.199999999999999</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="2">
         <v>6.1</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="2">
         <v>21.5</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="2">
         <v>5</v>
       </c>
       <c r="Y5" t="s">
@@ -1607,7 +1690,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:47">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>85</v>
       </c>
@@ -1651,33 +1734,33 @@
         <v>8.91</v>
       </c>
       <c r="O6">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="P6">
         <v>25</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="2">
         <v>64.5</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="2">
         <v>12</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="2">
         <v>2</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="2">
         <v>62.5</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="2">
         <v>-9.6</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="2">
         <v>8.94</v>
       </c>
-      <c r="W6">
-        <v>23.5</v>
-      </c>
-      <c r="X6">
+      <c r="W6" s="2">
+        <v>25.5</v>
+      </c>
+      <c r="X6" s="2">
         <v>11</v>
       </c>
       <c r="Y6" t="s">
@@ -1750,7 +1833,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:47">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -1799,28 +1882,28 @@
       <c r="P7">
         <v>78</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="2">
         <v>77</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="2">
         <v>7.5</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="2">
         <v>2</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="2">
         <v>77</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="2">
         <v>-12.1</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="2">
         <v>8.69</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="2">
         <v>33.5</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="2">
         <v>31.5</v>
       </c>
       <c r="Y7" t="s">
@@ -1893,7 +1976,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:47">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -1942,28 +2025,28 @@
       <c r="P8">
         <v>36</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="2">
         <v>155</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="2">
         <v>24</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="2">
         <v>0</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="2">
         <v>151</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="2">
         <v>-10</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="2">
         <v>11.06</v>
       </c>
-      <c r="W8">
-        <v>48</v>
-      </c>
-      <c r="X8">
+      <c r="W8" s="2">
+        <v>48</v>
+      </c>
+      <c r="X8" s="2">
         <v>26</v>
       </c>
       <c r="Y8" t="s">
@@ -2036,7 +2119,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:47">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -2085,28 +2168,28 @@
       <c r="P9">
         <v>65</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="2">
         <v>141</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="2">
         <v>39</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="2">
         <v>7</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="2">
         <v>130</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="2">
         <v>-12.1</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="2">
         <v>7.98</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="2">
         <v>69</v>
       </c>
-      <c r="X9">
+      <c r="X9" s="2">
         <v>40</v>
       </c>
       <c r="Y9" t="s">
@@ -2179,7 +2262,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:47">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>74</v>
       </c>
@@ -2228,28 +2311,28 @@
       <c r="P10">
         <v>56</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="2">
         <v>137</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="2">
         <v>32</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="2">
         <v>6</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="2">
         <v>126</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="2">
         <v>-11.9</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="2">
         <v>7.86</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="2">
         <v>64</v>
       </c>
-      <c r="X10">
+      <c r="X10" s="2">
         <v>48</v>
       </c>
       <c r="Y10" t="s">
@@ -2322,7 +2405,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:47">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>91</v>
       </c>
@@ -2371,28 +2454,28 @@
       <c r="P11">
         <v>24</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="2">
         <v>135</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="2">
         <v>26</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="2">
         <v>8</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="2">
         <v>134</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="2">
         <v>-9.1999999999999993</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="2">
         <v>9.26</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="2">
         <v>50</v>
       </c>
-      <c r="X11">
+      <c r="X11" s="2">
         <v>26</v>
       </c>
       <c r="Y11" t="s">
@@ -2465,7 +2548,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:47">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>92</v>
       </c>
@@ -2514,28 +2597,28 @@
       <c r="P12" t="s">
         <v>48</v>
       </c>
-      <c r="Q12">
-        <v>135</v>
-      </c>
-      <c r="R12">
-        <v>30</v>
-      </c>
-      <c r="S12">
-        <v>4</v>
-      </c>
-      <c r="T12">
-        <v>132</v>
-      </c>
-      <c r="U12">
+      <c r="Q12" s="2">
+        <v>67.5</v>
+      </c>
+      <c r="R12" s="2">
+        <v>15</v>
+      </c>
+      <c r="S12" s="2">
+        <v>2</v>
+      </c>
+      <c r="T12" s="2">
+        <v>66</v>
+      </c>
+      <c r="U12" s="2">
         <v>-11.35</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="2">
         <v>9.65</v>
       </c>
-      <c r="W12">
-        <v>54</v>
-      </c>
-      <c r="X12" t="s">
+      <c r="W12" s="2">
+        <v>27</v>
+      </c>
+      <c r="X12" s="2" t="s">
         <v>48</v>
       </c>
       <c r="Y12" t="s">
@@ -2608,7 +2691,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:47">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>96</v>
       </c>
@@ -2657,28 +2740,28 @@
       <c r="P13">
         <v>62</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="2">
         <v>157</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="2">
         <v>40</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="2">
         <v>7</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="2">
         <v>153</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="2">
         <v>-13.75</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="2">
         <v>8.5399999999999991</v>
       </c>
-      <c r="W13">
+      <c r="W13" s="2">
         <v>78</v>
       </c>
-      <c r="X13">
+      <c r="X13" s="2">
         <v>54</v>
       </c>
       <c r="Y13" t="s">
@@ -2751,7 +2834,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:47">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>93</v>
       </c>
@@ -2800,28 +2883,28 @@
       <c r="P14">
         <v>23</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="2">
         <v>138</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="2">
         <v>68</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="2">
         <v>1</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="2">
         <v>122</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="2">
         <v>-13</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="2">
         <v>3.31</v>
       </c>
-      <c r="W14">
-        <v>59</v>
-      </c>
-      <c r="X14">
+      <c r="W14" s="2">
+        <v>59</v>
+      </c>
+      <c r="X14" s="2">
         <v>38</v>
       </c>
       <c r="Y14" t="s">
@@ -2894,7 +2977,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:47">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>97</v>
       </c>
@@ -2943,28 +3026,28 @@
       <c r="P15">
         <v>18</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="2">
         <v>65</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="2">
         <v>29</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="2">
         <v>4</v>
       </c>
-      <c r="T15">
-        <v>60</v>
-      </c>
-      <c r="U15">
+      <c r="T15" s="2">
+        <v>60</v>
+      </c>
+      <c r="U15" s="2">
         <v>12.3</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="2">
         <v>8.6</v>
       </c>
-      <c r="W15">
+      <c r="W15" s="2">
         <v>18</v>
       </c>
-      <c r="X15">
+      <c r="X15" s="2">
         <v>10</v>
       </c>
       <c r="Y15" t="s">
@@ -3037,7 +3120,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:47">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>119</v>
       </c>
@@ -3051,7 +3134,7 @@
         <v>0.60250000000000004</v>
       </c>
       <c r="E16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F16" t="s">
         <v>100</v>
@@ -3086,28 +3169,28 @@
       <c r="P16">
         <v>15</v>
       </c>
-      <c r="Q16">
-        <v>58</v>
-      </c>
-      <c r="R16">
+      <c r="Q16" s="2">
+        <v>58</v>
+      </c>
+      <c r="R16" s="2">
         <v>42</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="2">
         <v>1</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="2">
         <v>57</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="2">
         <v>21.09</v>
       </c>
-      <c r="V16">
+      <c r="V16" s="2">
         <v>7.52</v>
       </c>
-      <c r="W16">
+      <c r="W16" s="2">
         <v>12</v>
       </c>
-      <c r="X16">
+      <c r="X16" s="2">
         <v>2</v>
       </c>
       <c r="Y16" t="s">
@@ -3180,7 +3263,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:47">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>122</v>
       </c>
@@ -3194,7 +3277,7 @@
         <v>0.67500000000000004</v>
       </c>
       <c r="E17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F17" t="s">
         <v>100</v>
@@ -3229,28 +3312,28 @@
       <c r="P17">
         <v>37</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="2">
         <v>169</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="2">
         <v>95</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="2">
         <v>8</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="2">
         <v>169</v>
       </c>
-      <c r="U17">
+      <c r="U17" s="2">
         <v>-8.1999999999999993</v>
       </c>
-      <c r="V17">
+      <c r="V17" s="2">
         <v>9</v>
       </c>
-      <c r="W17">
+      <c r="W17" s="2">
         <v>44</v>
       </c>
-      <c r="X17">
+      <c r="X17" s="2">
         <v>16</v>
       </c>
       <c r="Y17" t="s">
@@ -3323,7 +3406,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:47">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>123</v>
       </c>
@@ -3337,7 +3420,7 @@
         <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F18" t="s">
         <v>100</v>
@@ -3372,28 +3455,28 @@
       <c r="P18">
         <v>210</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="2">
         <v>70</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="2">
         <v>31</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="2">
         <v>3</v>
       </c>
-      <c r="T18">
+      <c r="T18" s="2">
         <v>68</v>
       </c>
-      <c r="U18">
+      <c r="U18" s="2">
         <v>-9</v>
       </c>
-      <c r="V18">
+      <c r="V18" s="2">
         <v>8.6300000000000008</v>
       </c>
-      <c r="W18">
+      <c r="W18" s="2">
         <v>34.5</v>
       </c>
-      <c r="X18">
+      <c r="X18" s="2">
         <v>29</v>
       </c>
       <c r="Y18" t="s">
@@ -3466,7 +3549,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:47">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>124</v>
       </c>
@@ -3480,7 +3563,7 @@
         <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F19" t="s">
         <v>100</v>
@@ -3515,28 +3598,28 @@
       <c r="P19">
         <v>139</v>
       </c>
-      <c r="Q19">
-        <v>59</v>
-      </c>
-      <c r="R19">
+      <c r="Q19" s="2">
+        <v>59</v>
+      </c>
+      <c r="R19" s="2">
         <v>22</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="2">
         <v>4</v>
       </c>
-      <c r="T19">
+      <c r="T19" s="2">
         <v>56.5</v>
       </c>
-      <c r="U19">
+      <c r="U19" s="2">
         <v>-9.1</v>
       </c>
-      <c r="V19">
+      <c r="V19" s="2">
         <v>8.19</v>
       </c>
-      <c r="W19">
+      <c r="W19" s="2">
         <v>30</v>
       </c>
-      <c r="X19">
+      <c r="X19" s="2">
         <v>26</v>
       </c>
       <c r="Y19" t="s">
@@ -3609,7 +3692,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:47">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>99</v>
       </c>
@@ -3658,28 +3741,28 @@
       <c r="P20">
         <v>57</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="2">
         <v>128</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="2">
         <v>52</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="2">
         <v>15</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="2">
         <v>128</v>
       </c>
-      <c r="U20">
+      <c r="U20" s="2">
         <v>-8.64</v>
       </c>
-      <c r="V20">
+      <c r="V20" s="2">
         <v>8.4499999999999993</v>
       </c>
-      <c r="W20">
+      <c r="W20" s="2">
         <v>43</v>
       </c>
-      <c r="X20">
+      <c r="X20" s="2">
         <v>34</v>
       </c>
       <c r="Y20" t="s">
@@ -3752,81 +3835,81 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:47">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="B21">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="C21">
-        <v>41.3</v>
-      </c>
-      <c r="D21" t="s">
-        <v>48</v>
+        <v>40.25</v>
+      </c>
+      <c r="D21">
+        <v>0.63</v>
       </c>
       <c r="E21" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="F21" t="s">
         <v>100</v>
       </c>
       <c r="G21">
+        <v>8</v>
+      </c>
+      <c r="H21">
+        <v>36</v>
+      </c>
+      <c r="I21">
+        <v>150</v>
+      </c>
+      <c r="J21">
+        <v>47</v>
+      </c>
+      <c r="K21">
+        <v>10</v>
+      </c>
+      <c r="L21">
+        <v>144</v>
+      </c>
+      <c r="M21">
+        <v>-13.1</v>
+      </c>
+      <c r="N21">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="O21">
+        <v>79</v>
+      </c>
+      <c r="P21">
+        <v>66</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>150</v>
+      </c>
+      <c r="R21" s="2">
+        <v>60</v>
+      </c>
+      <c r="S21" s="2">
         <v>12</v>
       </c>
-      <c r="H21" t="s">
-        <v>48</v>
-      </c>
-      <c r="I21">
+      <c r="T21" s="2">
+        <v>143</v>
+      </c>
+      <c r="U21" s="2">
+        <v>-11.1</v>
+      </c>
+      <c r="V21" s="2">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="W21" s="2">
+        <v>63</v>
+      </c>
+      <c r="X21" s="2">
         <v>54</v>
       </c>
-      <c r="J21">
-        <v>16</v>
-      </c>
-      <c r="K21">
-        <v>6</v>
-      </c>
-      <c r="L21">
-        <v>54</v>
-      </c>
-      <c r="M21">
-        <v>13.1</v>
-      </c>
-      <c r="N21">
-        <v>10.3</v>
-      </c>
-      <c r="O21">
-        <v>31</v>
-      </c>
-      <c r="P21">
-        <v>17</v>
-      </c>
-      <c r="Q21">
-        <v>9.5</v>
-      </c>
-      <c r="R21">
-        <v>2</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>9.5</v>
-      </c>
-      <c r="U21">
-        <v>12.2</v>
-      </c>
-      <c r="V21">
-        <v>9</v>
-      </c>
-      <c r="W21">
-        <v>5</v>
-      </c>
-      <c r="X21">
-        <v>3</v>
-      </c>
       <c r="Y21" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="Z21">
         <v>3</v>
@@ -3847,25 +3930,25 @@
         <v>67</v>
       </c>
       <c r="AF21" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="AG21" t="s">
         <v>56</v>
       </c>
       <c r="AH21" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="AI21">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AJ21" t="s">
         <v>58</v>
       </c>
       <c r="AK21">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AL21" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="AM21" t="s">
         <v>59</v>
@@ -3883,33 +3966,33 @@
         <v>59</v>
       </c>
       <c r="AR21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS21" t="s">
         <v>62</v>
       </c>
       <c r="AT21" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="AU21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:47">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="B22">
         <v>1999</v>
       </c>
       <c r="C22">
-        <v>40.25</v>
-      </c>
-      <c r="D22">
-        <v>0.63</v>
+        <v>40</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="F22" t="s">
         <v>100</v>
@@ -3918,58 +4001,58 @@
         <v>8</v>
       </c>
       <c r="H22">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="I22">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="J22">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="K22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L22">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="M22">
-        <v>-13.1</v>
+        <v>14.19999981</v>
       </c>
       <c r="N22">
-        <v>8.4499999999999993</v>
+        <v>8.19</v>
       </c>
       <c r="O22">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="P22">
-        <v>66</v>
-      </c>
-      <c r="Q22">
-        <v>150</v>
-      </c>
-      <c r="R22">
-        <v>60</v>
-      </c>
-      <c r="S22">
-        <v>12</v>
-      </c>
-      <c r="T22">
-        <v>143</v>
-      </c>
-      <c r="U22">
-        <v>-11.1</v>
-      </c>
-      <c r="V22">
-        <v>8.4499999999999993</v>
-      </c>
-      <c r="W22">
-        <v>63</v>
-      </c>
-      <c r="X22">
-        <v>54</v>
+        <v>23</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>49</v>
+      </c>
+      <c r="R22" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="S22" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="T22" s="2">
+        <v>48.5</v>
+      </c>
+      <c r="U22" s="2">
+        <v>14.8</v>
+      </c>
+      <c r="V22" s="2">
+        <v>7.94</v>
+      </c>
+      <c r="W22" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="X22" s="2">
+        <v>8.5</v>
       </c>
       <c r="Y22" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="Z22">
         <v>3</v>
@@ -3987,7 +4070,7 @@
         <v>53</v>
       </c>
       <c r="AE22" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="AF22" t="s">
         <v>55</v>
@@ -3999,7 +4082,7 @@
         <v>102</v>
       </c>
       <c r="AI22">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ22" t="s">
         <v>58</v>
@@ -4008,10 +4091,10 @@
         <v>8</v>
       </c>
       <c r="AL22" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="AM22" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AN22" t="s">
         <v>59</v>
@@ -4026,19 +4109,19 @@
         <v>59</v>
       </c>
       <c r="AR22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AS22" t="s">
         <v>62</v>
       </c>
       <c r="AT22" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="AU22" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:47">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>126</v>
       </c>
@@ -4046,13 +4129,13 @@
         <v>1999</v>
       </c>
       <c r="C23">
-        <v>40</v>
+        <v>42.400000000000006</v>
       </c>
       <c r="D23" t="s">
         <v>48</v>
       </c>
       <c r="E23" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F23" t="s">
         <v>100</v>
@@ -4061,55 +4144,55 @@
         <v>8</v>
       </c>
       <c r="H23">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I23">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="J23">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L23">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="M23">
-        <v>14.19999981</v>
+        <v>13.4</v>
       </c>
       <c r="N23">
-        <v>8.19</v>
+        <v>7.94</v>
       </c>
       <c r="O23">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="P23">
-        <v>23</v>
-      </c>
-      <c r="Q23">
-        <v>49</v>
-      </c>
-      <c r="R23">
-        <v>10.5</v>
-      </c>
-      <c r="S23">
-        <v>0.5</v>
-      </c>
-      <c r="T23">
-        <v>48.5</v>
-      </c>
-      <c r="U23">
-        <v>14.8</v>
-      </c>
-      <c r="V23">
-        <v>7.94</v>
-      </c>
-      <c r="W23">
-        <v>20.5</v>
-      </c>
-      <c r="X23">
-        <v>8.5</v>
+        <v>40</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>59.5</v>
+      </c>
+      <c r="R23" s="2">
+        <v>24</v>
+      </c>
+      <c r="S23" s="2">
+        <v>3</v>
+      </c>
+      <c r="T23" s="2">
+        <v>59</v>
+      </c>
+      <c r="U23" s="2">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="V23" s="2">
+        <v>7.92</v>
+      </c>
+      <c r="W23" s="2">
+        <v>24</v>
+      </c>
+      <c r="X23" s="2">
+        <v>10</v>
       </c>
       <c r="Y23" t="s">
         <v>49</v>
@@ -4118,7 +4201,7 @@
         <v>3</v>
       </c>
       <c r="AA23" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="AB23" t="s">
         <v>51</v>
@@ -4130,7 +4213,7 @@
         <v>53</v>
       </c>
       <c r="AE23" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AF23" t="s">
         <v>55</v>
@@ -4148,13 +4231,13 @@
         <v>58</v>
       </c>
       <c r="AK23">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AL23" t="s">
         <v>69</v>
       </c>
       <c r="AM23" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AN23" t="s">
         <v>59</v>
@@ -4175,27 +4258,27 @@
         <v>62</v>
       </c>
       <c r="AT23" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="AU23" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:47">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>127</v>
       </c>
       <c r="B24">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="C24">
-        <v>42.400000000000006</v>
+        <v>36.900000000000006</v>
       </c>
       <c r="D24" t="s">
         <v>48</v>
       </c>
       <c r="E24" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F24" t="s">
         <v>100</v>
@@ -4204,64 +4287,64 @@
         <v>8</v>
       </c>
       <c r="H24">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I24">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="J24">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="K24">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L24">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="M24">
-        <v>13.4</v>
+        <v>-12.8</v>
       </c>
       <c r="N24">
-        <v>7.94</v>
+        <v>9.67</v>
       </c>
       <c r="O24">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="P24">
-        <v>40</v>
-      </c>
-      <c r="Q24">
-        <v>59.5</v>
-      </c>
-      <c r="R24">
-        <v>24</v>
-      </c>
-      <c r="S24">
-        <v>3</v>
-      </c>
-      <c r="T24">
-        <v>59</v>
-      </c>
-      <c r="U24">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="V24">
-        <v>7.92</v>
-      </c>
-      <c r="W24">
-        <v>24</v>
-      </c>
-      <c r="X24">
-        <v>10</v>
+        <v>59</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>152</v>
+      </c>
+      <c r="R24" s="2">
+        <v>50</v>
+      </c>
+      <c r="S24" s="2">
+        <v>5</v>
+      </c>
+      <c r="T24" s="2">
+        <v>145</v>
+      </c>
+      <c r="U24" s="2">
+        <v>-11.4</v>
+      </c>
+      <c r="V24" s="2">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="W24" s="2">
+        <v>73</v>
+      </c>
+      <c r="X24" s="2">
+        <v>46</v>
       </c>
       <c r="Y24" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="Z24">
         <v>3</v>
       </c>
       <c r="AA24" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="AB24" t="s">
         <v>51</v>
@@ -4288,10 +4371,10 @@
         <v>20</v>
       </c>
       <c r="AJ24" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="AK24">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AL24" t="s">
         <v>69</v>
@@ -4312,19 +4395,19 @@
         <v>59</v>
       </c>
       <c r="AR24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS24" t="s">
         <v>62</v>
       </c>
       <c r="AT24" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="AU24" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:47">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>128</v>
       </c>
@@ -4332,13 +4415,13 @@
         <v>2000</v>
       </c>
       <c r="C25">
-        <v>36.900000000000006</v>
+        <v>37.900000000000006</v>
       </c>
       <c r="D25" t="s">
         <v>48</v>
       </c>
       <c r="E25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F25" t="s">
         <v>100</v>
@@ -4346,56 +4429,56 @@
       <c r="G25">
         <v>8</v>
       </c>
-      <c r="H25">
-        <v>26</v>
+      <c r="H25" t="s">
+        <v>48</v>
       </c>
       <c r="I25">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J25">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K25">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L25">
         <v>146</v>
       </c>
       <c r="M25">
-        <v>-12.8</v>
+        <v>-13.9</v>
       </c>
       <c r="N25">
-        <v>9.67</v>
+        <v>10.87</v>
       </c>
       <c r="O25">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P25">
-        <v>59</v>
-      </c>
-      <c r="Q25">
-        <v>152</v>
-      </c>
-      <c r="R25">
-        <v>50</v>
-      </c>
-      <c r="S25">
+        <v>55</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>154</v>
+      </c>
+      <c r="R25" s="2">
+        <v>53</v>
+      </c>
+      <c r="S25" s="2">
         <v>5</v>
       </c>
-      <c r="T25">
-        <v>145</v>
-      </c>
-      <c r="U25">
-        <v>-11.4</v>
-      </c>
-      <c r="V25">
-        <v>9.6300000000000008</v>
-      </c>
-      <c r="W25">
-        <v>73</v>
-      </c>
-      <c r="X25">
-        <v>46</v>
+      <c r="T25" s="2">
+        <v>148</v>
+      </c>
+      <c r="U25" s="2">
+        <v>-12.2</v>
+      </c>
+      <c r="V25" s="2">
+        <v>9.73</v>
+      </c>
+      <c r="W25" s="2">
+        <v>78</v>
+      </c>
+      <c r="X25" s="2">
+        <v>51</v>
       </c>
       <c r="Y25" t="s">
         <v>58</v>
@@ -4431,7 +4514,7 @@
         <v>20</v>
       </c>
       <c r="AJ25" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="AK25">
         <v>8</v>
@@ -4467,7 +4550,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:47">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>129</v>
       </c>
@@ -4475,76 +4558,76 @@
         <v>2000</v>
       </c>
       <c r="C26">
-        <v>37.900000000000006</v>
+        <v>41.6</v>
       </c>
       <c r="D26" t="s">
         <v>48</v>
       </c>
       <c r="E26" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F26" t="s">
         <v>100</v>
       </c>
       <c r="G26">
-        <v>8</v>
-      </c>
-      <c r="H26" t="s">
-        <v>48</v>
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <v>51</v>
       </c>
       <c r="I26">
-        <v>155</v>
+        <v>49</v>
       </c>
       <c r="J26">
-        <v>59</v>
-      </c>
-      <c r="K26">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="K26" t="s">
+        <v>48</v>
       </c>
       <c r="L26">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="M26">
-        <v>-13.9</v>
+        <v>7.7</v>
       </c>
       <c r="N26">
-        <v>10.87</v>
+        <v>5.6</v>
       </c>
       <c r="O26">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="P26">
-        <v>55</v>
-      </c>
-      <c r="Q26">
-        <v>154</v>
-      </c>
-      <c r="R26">
-        <v>53</v>
-      </c>
-      <c r="S26">
-        <v>5</v>
-      </c>
-      <c r="T26">
-        <v>148</v>
-      </c>
-      <c r="U26">
-        <v>-12.2</v>
-      </c>
-      <c r="V26">
-        <v>9.73</v>
-      </c>
-      <c r="W26">
-        <v>78</v>
-      </c>
-      <c r="X26">
-        <v>51</v>
+        <v>22</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>52</v>
+      </c>
+      <c r="R26" s="2">
+        <v>23</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T26" s="2">
+        <v>52</v>
+      </c>
+      <c r="U26" s="2">
+        <v>10.3</v>
+      </c>
+      <c r="V26" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="W26" s="2">
+        <v>12</v>
+      </c>
+      <c r="X26" s="2">
+        <v>16</v>
       </c>
       <c r="Y26" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="Z26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA26" t="s">
         <v>66</v>
@@ -4556,10 +4639,10 @@
         <v>52</v>
       </c>
       <c r="AD26" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="AE26" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="AF26" t="s">
         <v>55</v>
@@ -4568,16 +4651,16 @@
         <v>56</v>
       </c>
       <c r="AH26" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI26">
-        <v>20</v>
+        <v>48</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>48</v>
       </c>
       <c r="AJ26" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="AK26">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AL26" t="s">
         <v>69</v>
@@ -4598,96 +4681,96 @@
         <v>59</v>
       </c>
       <c r="AR26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AS26" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AT26" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="AU26" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:47">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>130</v>
       </c>
       <c r="B27">
-        <v>2000</v>
+        <v>2006</v>
       </c>
       <c r="C27">
-        <v>41.6</v>
+        <v>71</v>
       </c>
       <c r="D27" t="s">
         <v>48</v>
       </c>
       <c r="E27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F27" t="s">
         <v>100</v>
       </c>
       <c r="G27">
-        <v>10</v>
-      </c>
-      <c r="H27">
-        <v>51</v>
+        <v>8</v>
+      </c>
+      <c r="H27" t="s">
+        <v>48</v>
       </c>
       <c r="I27">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="J27">
-        <v>14</v>
-      </c>
-      <c r="K27" t="s">
-        <v>48</v>
+        <v>30</v>
+      </c>
+      <c r="K27">
+        <v>19</v>
       </c>
       <c r="L27">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="M27">
-        <v>7.7</v>
+        <v>16.3</v>
       </c>
       <c r="N27">
-        <v>5.6</v>
+        <v>8.59</v>
       </c>
       <c r="O27">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="P27">
-        <v>22</v>
-      </c>
-      <c r="Q27">
-        <v>52</v>
-      </c>
-      <c r="R27">
-        <v>23</v>
-      </c>
-      <c r="S27" t="s">
-        <v>48</v>
-      </c>
-      <c r="T27">
-        <v>52</v>
-      </c>
-      <c r="U27">
-        <v>10.3</v>
-      </c>
-      <c r="V27">
-        <v>6.3</v>
-      </c>
-      <c r="W27">
-        <v>12</v>
-      </c>
-      <c r="X27">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>48</v>
+      </c>
+      <c r="R27" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="S27" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="T27" s="2">
+        <v>48</v>
+      </c>
+      <c r="U27" s="2">
+        <v>14.8</v>
+      </c>
+      <c r="V27" s="2">
+        <v>8.59</v>
+      </c>
+      <c r="W27" s="2">
+        <v>20</v>
+      </c>
+      <c r="X27" s="2">
+        <v>11.5</v>
       </c>
       <c r="Y27" t="s">
         <v>49</v>
       </c>
       <c r="Z27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA27" t="s">
         <v>66</v>
@@ -4699,7 +4782,7 @@
         <v>52</v>
       </c>
       <c r="AD27" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="AE27" t="s">
         <v>78</v>
@@ -4711,19 +4794,19 @@
         <v>56</v>
       </c>
       <c r="AH27" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI27" t="s">
-        <v>48</v>
+        <v>102</v>
+      </c>
+      <c r="AI27">
+        <v>20</v>
       </c>
       <c r="AJ27" t="s">
         <v>58</v>
       </c>
       <c r="AK27">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AL27" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="AM27" t="s">
         <v>59</v>
@@ -4744,87 +4827,87 @@
         <v>61</v>
       </c>
       <c r="AS27" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AT27" t="s">
         <v>82</v>
       </c>
       <c r="AU27" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:47">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>131</v>
       </c>
       <c r="B28">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C28">
-        <v>71</v>
+        <v>39.15</v>
       </c>
       <c r="D28" t="s">
         <v>48</v>
       </c>
       <c r="E28" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F28" t="s">
         <v>100</v>
       </c>
       <c r="G28">
-        <v>8</v>
-      </c>
-      <c r="H28" t="s">
-        <v>48</v>
+        <v>6</v>
+      </c>
+      <c r="H28">
+        <v>41</v>
       </c>
       <c r="I28">
+        <v>104</v>
+      </c>
+      <c r="J28">
+        <v>18</v>
+      </c>
+      <c r="K28">
+        <v>7</v>
+      </c>
+      <c r="L28">
         <v>100</v>
       </c>
-      <c r="J28">
-        <v>30</v>
-      </c>
-      <c r="K28">
-        <v>19</v>
-      </c>
-      <c r="L28">
-        <v>99</v>
-      </c>
       <c r="M28">
-        <v>16.3</v>
+        <v>13.9</v>
       </c>
       <c r="N28">
         <v>8.59</v>
       </c>
       <c r="O28">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="P28">
-        <v>20</v>
-      </c>
-      <c r="Q28">
-        <v>48</v>
-      </c>
-      <c r="R28">
-        <v>11.5</v>
-      </c>
-      <c r="S28">
-        <v>4.5</v>
-      </c>
-      <c r="T28">
-        <v>48</v>
-      </c>
-      <c r="U28">
+        <v>28</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>51</v>
+      </c>
+      <c r="R28" s="2">
+        <v>12</v>
+      </c>
+      <c r="S28" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="T28" s="2">
+        <v>50.5</v>
+      </c>
+      <c r="U28" s="2">
         <v>14.8</v>
       </c>
-      <c r="V28">
+      <c r="V28" s="2">
         <v>8.59</v>
       </c>
-      <c r="W28">
-        <v>20</v>
-      </c>
-      <c r="X28">
-        <v>11.5</v>
+      <c r="W28" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="X28" s="2">
+        <v>11</v>
       </c>
       <c r="Y28" t="s">
         <v>49</v>
@@ -4863,10 +4946,10 @@
         <v>58</v>
       </c>
       <c r="AK28">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AL28" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="AM28" t="s">
         <v>59</v>
@@ -4890,93 +4973,93 @@
         <v>62</v>
       </c>
       <c r="AT28" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="AU28" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:47">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>132</v>
       </c>
-      <c r="B29">
-        <v>2007</v>
+      <c r="B29" t="s">
+        <v>48</v>
       </c>
       <c r="C29">
-        <v>39.15</v>
-      </c>
-      <c r="D29" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="D29">
+        <v>0.53</v>
       </c>
       <c r="E29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F29" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="G29">
         <v>6</v>
       </c>
       <c r="H29">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I29">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="J29">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>44</v>
+      </c>
+      <c r="M29">
+        <v>-10.9</v>
+      </c>
+      <c r="N29">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="O29">
+        <v>19</v>
+      </c>
+      <c r="P29">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>57</v>
+      </c>
+      <c r="R29" s="2">
+        <v>26</v>
+      </c>
+      <c r="S29" s="2">
+        <v>5</v>
+      </c>
+      <c r="T29" s="2">
+        <v>45</v>
+      </c>
+      <c r="U29" s="2">
+        <v>-9</v>
+      </c>
+      <c r="V29" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="W29" s="2">
+        <v>15</v>
+      </c>
+      <c r="X29" s="2">
         <v>7</v>
       </c>
-      <c r="L29">
-        <v>100</v>
-      </c>
-      <c r="M29">
-        <v>13.9</v>
-      </c>
-      <c r="N29">
-        <v>8.59</v>
-      </c>
-      <c r="O29">
-        <v>45</v>
-      </c>
-      <c r="P29">
-        <v>28</v>
-      </c>
-      <c r="Q29">
-        <v>51</v>
-      </c>
-      <c r="R29">
-        <v>12</v>
-      </c>
-      <c r="S29">
-        <v>1.5</v>
-      </c>
-      <c r="T29">
-        <v>50.5</v>
-      </c>
-      <c r="U29">
-        <v>14.8</v>
-      </c>
-      <c r="V29">
-        <v>8.59</v>
-      </c>
-      <c r="W29">
-        <v>18.5</v>
-      </c>
-      <c r="X29">
-        <v>11</v>
-      </c>
       <c r="Y29" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="Z29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA29" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="AB29" t="s">
         <v>51</v>
@@ -4991,16 +5074,16 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AG29" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="AH29" t="s">
         <v>102</v>
       </c>
       <c r="AI29">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ29" t="s">
         <v>58</v>
@@ -5009,7 +5092,7 @@
         <v>6</v>
       </c>
       <c r="AL29" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="AM29" t="s">
         <v>59</v>
@@ -5027,7 +5110,7 @@
         <v>59</v>
       </c>
       <c r="AR29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS29" t="s">
         <v>62</v>
@@ -5039,78 +5122,78 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:47">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>133</v>
-      </c>
-      <c r="B30" t="s">
-        <v>48</v>
+        <v>135</v>
+      </c>
+      <c r="B30">
+        <v>1986</v>
       </c>
       <c r="C30">
-        <v>46</v>
+        <v>44.7</v>
       </c>
       <c r="D30">
-        <v>0.53</v>
+        <v>0.64149999999999996</v>
       </c>
       <c r="E30" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="F30" t="s">
-        <v>134</v>
+        <v>47</v>
       </c>
       <c r="G30">
         <v>6</v>
       </c>
-      <c r="H30">
-        <v>33</v>
+      <c r="H30" t="s">
+        <v>48</v>
       </c>
       <c r="I30">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J30">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>51</v>
+      </c>
+      <c r="M30">
+        <v>-12.27</v>
+      </c>
+      <c r="N30">
+        <v>9.49</v>
+      </c>
+      <c r="O30">
+        <v>27</v>
+      </c>
+      <c r="P30">
+        <v>13</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>56</v>
+      </c>
+      <c r="R30" s="2">
+        <v>25</v>
+      </c>
+      <c r="S30" s="2">
         <v>3</v>
       </c>
-      <c r="L30">
-        <v>44</v>
-      </c>
-      <c r="M30">
-        <v>-10.9</v>
-      </c>
-      <c r="N30">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="O30">
-        <v>19</v>
-      </c>
-      <c r="P30">
-        <v>11</v>
-      </c>
-      <c r="Q30">
-        <v>57</v>
-      </c>
-      <c r="R30">
-        <v>26</v>
-      </c>
-      <c r="S30">
-        <v>5</v>
-      </c>
-      <c r="T30">
-        <v>45</v>
-      </c>
-      <c r="U30">
-        <v>-9</v>
-      </c>
-      <c r="V30">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="W30">
-        <v>15</v>
-      </c>
-      <c r="X30">
-        <v>7</v>
+      <c r="T30" s="2">
+        <v>53</v>
+      </c>
+      <c r="U30" s="2">
+        <v>-6.81</v>
+      </c>
+      <c r="V30" s="2">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="W30" s="2">
+        <v>16</v>
+      </c>
+      <c r="X30" s="2">
+        <v>6</v>
       </c>
       <c r="Y30" t="s">
         <v>58</v>
@@ -5119,7 +5202,7 @@
         <v>2</v>
       </c>
       <c r="AA30" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="AB30" t="s">
         <v>51</v>
@@ -5128,19 +5211,19 @@
         <v>52</v>
       </c>
       <c r="AD30" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="AE30" t="s">
         <v>78</v>
       </c>
       <c r="AF30" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="AG30" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="AH30" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="AI30">
         <v>18</v>
@@ -5152,7 +5235,7 @@
         <v>6</v>
       </c>
       <c r="AL30" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="AM30" t="s">
         <v>59</v>
@@ -5170,7 +5253,7 @@
         <v>59</v>
       </c>
       <c r="AR30" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AS30" t="s">
         <v>62</v>
@@ -5182,7 +5265,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:47">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>136</v>
       </c>
@@ -5190,10 +5273,10 @@
         <v>1986</v>
       </c>
       <c r="C31">
-        <v>44.7</v>
+        <v>35.1</v>
       </c>
       <c r="D31">
-        <v>0.64149999999999996</v>
+        <v>0.39550000000000002</v>
       </c>
       <c r="E31" t="s">
         <v>115</v>
@@ -5208,52 +5291,52 @@
         <v>48</v>
       </c>
       <c r="I31">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="J31">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>36</v>
+      </c>
+      <c r="M31">
+        <v>-10.94</v>
+      </c>
+      <c r="N31">
+        <v>8.64</v>
+      </c>
+      <c r="O31">
+        <v>15</v>
+      </c>
+      <c r="P31">
+        <v>9</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>36</v>
+      </c>
+      <c r="R31" s="2">
+        <v>18</v>
+      </c>
+      <c r="S31" s="2">
         <v>2</v>
       </c>
-      <c r="L31">
-        <v>51</v>
-      </c>
-      <c r="M31">
-        <v>-12.27</v>
-      </c>
-      <c r="N31">
-        <v>9.49</v>
-      </c>
-      <c r="O31">
-        <v>27</v>
-      </c>
-      <c r="P31">
-        <v>13</v>
-      </c>
-      <c r="Q31">
-        <v>56</v>
-      </c>
-      <c r="R31">
-        <v>25</v>
-      </c>
-      <c r="S31">
-        <v>3</v>
-      </c>
-      <c r="T31">
-        <v>53</v>
-      </c>
-      <c r="U31">
-        <v>-6.81</v>
-      </c>
-      <c r="V31">
-        <v>9.5399999999999991</v>
-      </c>
-      <c r="W31">
-        <v>16</v>
-      </c>
-      <c r="X31">
-        <v>6</v>
+      <c r="T31" s="2">
+        <v>34</v>
+      </c>
+      <c r="U31" s="2">
+        <v>-5.77</v>
+      </c>
+      <c r="V31" s="2">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="W31" s="2">
+        <v>8</v>
+      </c>
+      <c r="X31" s="2">
+        <v>4</v>
       </c>
       <c r="Y31" t="s">
         <v>58</v>
@@ -5325,7 +5408,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:47">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>137</v>
       </c>
@@ -5333,10 +5416,10 @@
         <v>1986</v>
       </c>
       <c r="C32">
-        <v>35.1</v>
+        <v>44.75</v>
       </c>
       <c r="D32">
-        <v>0.39550000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="E32" t="s">
         <v>115</v>
@@ -5351,51 +5434,51 @@
         <v>48</v>
       </c>
       <c r="I32">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J32">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K32">
         <v>3</v>
       </c>
       <c r="L32">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M32">
-        <v>-10.94</v>
+        <v>-10.08</v>
       </c>
       <c r="N32">
-        <v>8.64</v>
+        <v>10.3</v>
       </c>
       <c r="O32">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P32">
-        <v>9</v>
-      </c>
-      <c r="Q32">
-        <v>36</v>
-      </c>
-      <c r="R32">
-        <v>18</v>
-      </c>
-      <c r="S32">
-        <v>2</v>
-      </c>
-      <c r="T32">
-        <v>34</v>
-      </c>
-      <c r="U32">
-        <v>-5.77</v>
-      </c>
-      <c r="V32">
-        <v>8.6300000000000008</v>
-      </c>
-      <c r="W32">
-        <v>8</v>
-      </c>
-      <c r="X32">
+        <v>6</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>38</v>
+      </c>
+      <c r="R32" s="2">
+        <v>24</v>
+      </c>
+      <c r="S32" s="2">
+        <v>3</v>
+      </c>
+      <c r="T32" s="2">
+        <v>37</v>
+      </c>
+      <c r="U32" s="2">
+        <v>-7.95</v>
+      </c>
+      <c r="V32" s="2">
+        <v>10.34</v>
+      </c>
+      <c r="W32" s="2">
+        <v>10</v>
+      </c>
+      <c r="X32" s="2">
         <v>4</v>
       </c>
       <c r="Y32" t="s">
@@ -5462,24 +5545,24 @@
         <v>62</v>
       </c>
       <c r="AT32" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="AU32" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:47">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>138</v>
       </c>
       <c r="B33">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="C33">
-        <v>44.75</v>
+        <v>37.599999999999994</v>
       </c>
       <c r="D33">
-        <v>0.5</v>
+        <v>0.45599999999999996</v>
       </c>
       <c r="E33" t="s">
         <v>115</v>
@@ -5494,52 +5577,52 @@
         <v>48</v>
       </c>
       <c r="I33">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J33">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L33">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M33">
-        <v>-10.08</v>
+        <v>-12.65</v>
       </c>
       <c r="N33">
-        <v>10.3</v>
+        <v>7.18</v>
       </c>
       <c r="O33">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P33">
-        <v>6</v>
-      </c>
-      <c r="Q33">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>41</v>
+      </c>
+      <c r="R33" s="2">
+        <v>23</v>
+      </c>
+      <c r="S33" s="2">
+        <v>1</v>
+      </c>
+      <c r="T33" s="2">
         <v>38</v>
       </c>
-      <c r="R33">
-        <v>24</v>
-      </c>
-      <c r="S33">
-        <v>3</v>
-      </c>
-      <c r="T33">
-        <v>37</v>
-      </c>
-      <c r="U33">
-        <v>-7.95</v>
-      </c>
-      <c r="V33">
-        <v>10.34</v>
-      </c>
-      <c r="W33">
-        <v>10</v>
-      </c>
-      <c r="X33">
-        <v>4</v>
+      <c r="U33" s="2">
+        <v>-7.61</v>
+      </c>
+      <c r="V33" s="2">
+        <v>7.15</v>
+      </c>
+      <c r="W33" s="2">
+        <v>7</v>
+      </c>
+      <c r="X33" s="2">
+        <v>2</v>
       </c>
       <c r="Y33" t="s">
         <v>58</v>
@@ -5605,24 +5688,24 @@
         <v>62</v>
       </c>
       <c r="AT33" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="AU33" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:47">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B34">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="C34">
-        <v>37.599999999999994</v>
-      </c>
-      <c r="D34">
-        <v>0.45599999999999996</v>
+        <v>42.8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>48</v>
       </c>
       <c r="E34" t="s">
         <v>115</v>
@@ -5631,64 +5714,64 @@
         <v>47</v>
       </c>
       <c r="G34">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H34" t="s">
         <v>48</v>
       </c>
       <c r="I34">
-        <v>40</v>
+        <v>357</v>
       </c>
       <c r="J34">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="K34">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="L34">
-        <v>37</v>
+        <v>350</v>
       </c>
       <c r="M34">
-        <v>-12.65</v>
+        <v>-11.8</v>
       </c>
       <c r="N34">
-        <v>7.18</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="O34">
-        <v>15</v>
+        <v>217</v>
       </c>
       <c r="P34">
-        <v>5</v>
-      </c>
-      <c r="Q34">
-        <v>41</v>
-      </c>
-      <c r="R34">
-        <v>23</v>
-      </c>
-      <c r="S34">
-        <v>1</v>
-      </c>
-      <c r="T34">
-        <v>38</v>
-      </c>
-      <c r="U34">
-        <v>-7.61</v>
-      </c>
-      <c r="V34">
-        <v>7.15</v>
-      </c>
-      <c r="W34">
-        <v>7</v>
-      </c>
-      <c r="X34">
-        <v>2</v>
+        <v>189</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>70</v>
+      </c>
+      <c r="R34" s="2">
+        <v>31</v>
+      </c>
+      <c r="S34" s="2">
+        <v>3</v>
+      </c>
+      <c r="T34" s="2">
+        <v>68</v>
+      </c>
+      <c r="U34" s="2">
+        <v>-9</v>
+      </c>
+      <c r="V34" s="2">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="W34" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="X34" s="2">
+        <v>29</v>
       </c>
       <c r="Y34" t="s">
         <v>58</v>
       </c>
       <c r="Z34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA34" t="s">
         <v>66</v>
@@ -5700,13 +5783,13 @@
         <v>52</v>
       </c>
       <c r="AD34" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="AE34" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AF34" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="AG34" t="s">
         <v>56</v>
@@ -5721,7 +5804,7 @@
         <v>58</v>
       </c>
       <c r="AK34">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AL34" t="s">
         <v>69</v>
@@ -5742,7 +5825,7 @@
         <v>59</v>
       </c>
       <c r="AR34" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AS34" t="s">
         <v>62</v>
@@ -5754,15 +5837,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:47">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B35">
         <v>1991</v>
       </c>
       <c r="C35">
-        <v>42.8</v>
+        <v>42.2</v>
       </c>
       <c r="D35" t="s">
         <v>48</v>
@@ -5780,52 +5863,52 @@
         <v>48</v>
       </c>
       <c r="I35">
-        <v>357</v>
+        <v>284</v>
       </c>
       <c r="J35">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="K35">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="L35">
-        <v>350</v>
+        <v>272</v>
       </c>
       <c r="M35">
-        <v>-11.8</v>
+        <v>-10.6</v>
       </c>
       <c r="N35">
-        <v>8.7899999999999991</v>
+        <v>8.25</v>
       </c>
       <c r="O35">
-        <v>217</v>
+        <v>152</v>
       </c>
       <c r="P35">
-        <v>189</v>
-      </c>
-      <c r="Q35">
-        <v>70</v>
-      </c>
-      <c r="R35">
-        <v>31</v>
-      </c>
-      <c r="S35">
-        <v>3</v>
-      </c>
-      <c r="T35">
-        <v>68</v>
-      </c>
-      <c r="U35">
-        <v>-9</v>
-      </c>
-      <c r="V35">
-        <v>8.6300000000000008</v>
-      </c>
-      <c r="W35">
-        <v>34.5</v>
-      </c>
-      <c r="X35">
-        <v>29</v>
+        <v>131</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>59</v>
+      </c>
+      <c r="R35" s="2">
+        <v>22</v>
+      </c>
+      <c r="S35" s="2">
+        <v>4</v>
+      </c>
+      <c r="T35" s="2">
+        <v>56.5</v>
+      </c>
+      <c r="U35" s="2">
+        <v>-9.1</v>
+      </c>
+      <c r="V35" s="2">
+        <v>8.19</v>
+      </c>
+      <c r="W35" s="2">
+        <v>30</v>
+      </c>
+      <c r="X35" s="2">
+        <v>26</v>
       </c>
       <c r="Y35" t="s">
         <v>58</v>
@@ -5897,15 +5980,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:47">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="B36">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="C36">
-        <v>42.2</v>
+        <v>41.85</v>
       </c>
       <c r="D36" t="s">
         <v>48</v>
@@ -5917,64 +6000,64 @@
         <v>47</v>
       </c>
       <c r="G36">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H36" t="s">
         <v>48</v>
       </c>
       <c r="I36">
-        <v>284</v>
+        <v>125</v>
       </c>
       <c r="J36">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="K36">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="L36">
-        <v>272</v>
+        <v>120</v>
       </c>
       <c r="M36">
-        <v>-10.6</v>
+        <v>-10.23</v>
       </c>
       <c r="N36">
-        <v>8.25</v>
+        <v>7.67</v>
       </c>
       <c r="O36">
-        <v>152</v>
+        <v>56</v>
       </c>
       <c r="P36">
-        <v>131</v>
-      </c>
-      <c r="Q36">
-        <v>59</v>
-      </c>
-      <c r="R36">
-        <v>22</v>
-      </c>
-      <c r="S36">
-        <v>4</v>
-      </c>
-      <c r="T36">
-        <v>56.5</v>
-      </c>
-      <c r="U36">
-        <v>-9.1</v>
-      </c>
-      <c r="V36">
-        <v>8.19</v>
-      </c>
-      <c r="W36">
-        <v>30</v>
-      </c>
-      <c r="X36">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>129</v>
+      </c>
+      <c r="R36" s="2">
+        <v>41</v>
+      </c>
+      <c r="S36" s="2">
+        <v>8</v>
+      </c>
+      <c r="T36" s="2">
+        <v>123</v>
+      </c>
+      <c r="U36" s="2">
+        <v>-8.25</v>
+      </c>
+      <c r="V36" s="2">
+        <v>7.56</v>
+      </c>
+      <c r="W36" s="2">
+        <v>44</v>
+      </c>
+      <c r="X36" s="2">
+        <v>14</v>
       </c>
       <c r="Y36" t="s">
         <v>58</v>
       </c>
       <c r="Z36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA36" t="s">
         <v>66</v>
@@ -6007,7 +6090,7 @@
         <v>58</v>
       </c>
       <c r="AK36">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AL36" t="s">
         <v>69</v>
@@ -6040,15 +6123,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:47">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="B37">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="C37">
-        <v>41.85</v>
+        <v>39.049999999999997</v>
       </c>
       <c r="D37" t="s">
         <v>48</v>
@@ -6060,64 +6143,64 @@
         <v>47</v>
       </c>
       <c r="G37">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H37" t="s">
         <v>48</v>
       </c>
       <c r="I37">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="J37">
+        <v>36</v>
+      </c>
+      <c r="K37">
+        <v>16</v>
+      </c>
+      <c r="L37">
+        <v>104</v>
+      </c>
+      <c r="M37">
+        <v>-11.1</v>
+      </c>
+      <c r="N37">
+        <v>8.26</v>
+      </c>
+      <c r="O37">
+        <v>49</v>
+      </c>
+      <c r="P37">
         <v>45</v>
       </c>
-      <c r="K37">
+      <c r="Q37" s="2">
+        <v>51.5</v>
+      </c>
+      <c r="R37" s="2">
         <v>15</v>
       </c>
-      <c r="L37">
-        <v>120</v>
-      </c>
-      <c r="M37">
-        <v>-10.23</v>
-      </c>
-      <c r="N37">
-        <v>7.67</v>
-      </c>
-      <c r="O37">
-        <v>56</v>
-      </c>
-      <c r="P37">
+      <c r="S37" s="2">
+        <v>3</v>
+      </c>
+      <c r="T37" s="2">
+        <v>50.5</v>
+      </c>
+      <c r="U37" s="2">
+        <v>-9.9</v>
+      </c>
+      <c r="V37" s="2">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="W37" s="2">
         <v>21</v>
       </c>
-      <c r="Q37">
-        <v>129</v>
-      </c>
-      <c r="R37">
-        <v>41</v>
-      </c>
-      <c r="S37">
-        <v>8</v>
-      </c>
-      <c r="T37">
-        <v>123</v>
-      </c>
-      <c r="U37">
-        <v>-8.25</v>
-      </c>
-      <c r="V37">
-        <v>7.56</v>
-      </c>
-      <c r="W37">
-        <v>44</v>
-      </c>
-      <c r="X37">
-        <v>14</v>
+      <c r="X37" s="2">
+        <v>19</v>
       </c>
       <c r="Y37" t="s">
         <v>58</v>
       </c>
       <c r="Z37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA37" t="s">
         <v>66</v>
@@ -6135,22 +6218,22 @@
         <v>67</v>
       </c>
       <c r="AF37" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="AG37" t="s">
         <v>56</v>
       </c>
       <c r="AH37" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="AI37">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AJ37" t="s">
         <v>58</v>
       </c>
       <c r="AK37">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AL37" t="s">
         <v>69</v>
@@ -6171,7 +6254,7 @@
         <v>59</v>
       </c>
       <c r="AR37" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AS37" t="s">
         <v>62</v>
@@ -6183,9 +6266,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:47">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="B38">
         <v>1997</v>
@@ -6212,123 +6295,54 @@
         <v>106</v>
       </c>
       <c r="J38">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K38">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L38">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M38">
-        <v>-11.1</v>
+        <v>-12.7</v>
       </c>
       <c r="N38">
-        <v>8.26</v>
+        <v>8.08</v>
       </c>
       <c r="O38">
+        <v>57</v>
+      </c>
+      <c r="P38">
         <v>49</v>
       </c>
-      <c r="P38">
-        <v>45</v>
-      </c>
-      <c r="Q38">
-        <v>103</v>
-      </c>
-      <c r="R38">
-        <v>29</v>
-      </c>
-      <c r="S38">
-        <v>6</v>
-      </c>
-      <c r="T38">
-        <v>101</v>
-      </c>
-      <c r="U38">
+      <c r="Q38" s="2">
+        <v>51.5</v>
+      </c>
+      <c r="R38" s="2">
+        <v>14</v>
+      </c>
+      <c r="S38" s="2">
+        <v>3</v>
+      </c>
+      <c r="T38" s="2">
+        <v>50.5</v>
+      </c>
+      <c r="U38" s="2">
         <v>-9.9</v>
       </c>
-      <c r="V38">
+      <c r="V38" s="2">
         <v>8.0399999999999991</v>
       </c>
-      <c r="W38">
-        <v>42</v>
-      </c>
-      <c r="X38">
-        <v>38</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z38">
-        <v>3</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF38" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG38" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH38" t="s">
-        <v>142</v>
-      </c>
-      <c r="AI38">
+      <c r="W38" s="2">
         <v>21</v>
       </c>
-      <c r="AJ38" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK38">
-        <v>12</v>
-      </c>
-      <c r="AL38" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM38" t="s">
-        <v>59</v>
-      </c>
-      <c r="AN38" t="s">
-        <v>59</v>
-      </c>
-      <c r="AO38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP38" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ38" t="s">
-        <v>59</v>
-      </c>
-      <c r="AR38" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS38" t="s">
-        <v>62</v>
-      </c>
-      <c r="AT38" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU38" t="s">
-        <v>71</v>
+      <c r="X38" s="2">
+        <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:47">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B39">
         <v>1997</v>
@@ -6375,29 +6389,29 @@
       <c r="P39">
         <v>50</v>
       </c>
-      <c r="Q39">
-        <v>110</v>
-      </c>
-      <c r="R39">
-        <v>33</v>
-      </c>
-      <c r="S39">
-        <v>6</v>
-      </c>
-      <c r="T39">
-        <v>110</v>
-      </c>
-      <c r="U39">
+      <c r="Q39" s="2">
+        <v>55</v>
+      </c>
+      <c r="R39" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="S39" s="2">
+        <v>3</v>
+      </c>
+      <c r="T39" s="2">
+        <v>55</v>
+      </c>
+      <c r="U39" s="2">
         <v>-10.199999999999999</v>
       </c>
-      <c r="V39">
+      <c r="V39" s="2">
         <v>8.18</v>
       </c>
-      <c r="W39">
-        <v>47</v>
-      </c>
-      <c r="X39">
-        <v>37</v>
+      <c r="W39" s="2">
+        <v>23.5</v>
+      </c>
+      <c r="X39" s="2">
+        <v>18.5</v>
       </c>
       <c r="Y39" t="s">
         <v>58</v>
@@ -6469,15 +6483,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:47">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="B40">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C40">
-        <v>41.3</v>
+        <v>40.650000000000006</v>
       </c>
       <c r="D40" t="s">
         <v>48</v>
@@ -6495,124 +6509,55 @@
         <v>48</v>
       </c>
       <c r="I40">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="J40">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="K40">
         <v>9</v>
       </c>
       <c r="L40">
+        <v>108</v>
+      </c>
+      <c r="M40">
+        <v>-13.3</v>
+      </c>
+      <c r="N40">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="O40">
+        <v>61</v>
+      </c>
+      <c r="P40">
         <v>55</v>
       </c>
-      <c r="M40">
-        <v>12.1</v>
-      </c>
-      <c r="N40">
-        <v>10</v>
-      </c>
-      <c r="O40">
-        <v>32</v>
-      </c>
-      <c r="P40">
-        <v>19</v>
-      </c>
-      <c r="Q40">
-        <v>9.5</v>
-      </c>
-      <c r="R40">
-        <v>2</v>
-      </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
-      <c r="T40">
-        <v>9.5</v>
-      </c>
-      <c r="U40">
-        <v>12.2</v>
-      </c>
-      <c r="V40">
-        <v>9</v>
-      </c>
-      <c r="W40">
-        <v>5</v>
-      </c>
-      <c r="X40">
+      <c r="Q40" s="2">
+        <v>55</v>
+      </c>
+      <c r="R40" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="S40" s="2">
         <v>3</v>
       </c>
-      <c r="Y40" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z40">
-        <v>3</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC40" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD40" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF40" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG40" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH40" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI40">
-        <v>18</v>
-      </c>
-      <c r="AJ40" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK40">
-        <v>12</v>
-      </c>
-      <c r="AL40" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM40" t="s">
-        <v>59</v>
-      </c>
-      <c r="AN40" t="s">
-        <v>59</v>
-      </c>
-      <c r="AO40" t="s">
-        <v>60</v>
-      </c>
-      <c r="AP40" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ40" t="s">
-        <v>59</v>
-      </c>
-      <c r="AR40" t="s">
-        <v>61</v>
-      </c>
-      <c r="AS40" t="s">
-        <v>62</v>
-      </c>
-      <c r="AT40" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU40" t="s">
-        <v>71</v>
+      <c r="T40" s="2">
+        <v>55</v>
+      </c>
+      <c r="U40" s="2">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="V40" s="2">
+        <v>8.18</v>
+      </c>
+      <c r="W40" s="2">
+        <v>23.5</v>
+      </c>
+      <c r="X40" s="2">
+        <v>18.5</v>
       </c>
     </row>
-    <row r="41" spans="1:47">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>104</v>
       </c>
@@ -6637,7 +6582,7 @@
       <c r="H41">
         <v>29</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="1">
         <v>265</v>
       </c>
       <c r="J41">
@@ -6655,34 +6600,34 @@
       <c r="N41">
         <v>8.4499999999999993</v>
       </c>
-      <c r="O41">
+      <c r="O41" s="1">
         <v>156</v>
       </c>
       <c r="P41">
         <v>152</v>
       </c>
-      <c r="Q41">
+      <c r="Q41" s="3">
         <v>257</v>
       </c>
-      <c r="R41">
+      <c r="R41" s="2">
         <v>40</v>
       </c>
-      <c r="S41">
+      <c r="S41" s="2">
         <v>8</v>
       </c>
-      <c r="T41">
+      <c r="T41" s="4">
         <v>247</v>
       </c>
-      <c r="U41">
+      <c r="U41" s="2">
         <v>-11.5</v>
       </c>
-      <c r="V41">
+      <c r="V41" s="2">
         <v>8.4499999999999993</v>
       </c>
-      <c r="W41">
+      <c r="W41" s="3">
         <v>136</v>
       </c>
-      <c r="X41">
+      <c r="X41" s="2">
         <v>124</v>
       </c>
       <c r="Y41" t="s">
@@ -6755,7 +6700,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:47">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>105</v>
       </c>
@@ -6780,7 +6725,7 @@
       <c r="H42">
         <v>33</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="1">
         <v>262</v>
       </c>
       <c r="J42">
@@ -6798,34 +6743,34 @@
       <c r="N42">
         <v>7.64</v>
       </c>
-      <c r="O42">
+      <c r="O42" s="1">
         <v>128</v>
       </c>
       <c r="P42">
         <v>109</v>
       </c>
-      <c r="Q42">
+      <c r="Q42" s="3">
         <v>254</v>
       </c>
-      <c r="R42">
-        <v>58</v>
-      </c>
-      <c r="S42">
+      <c r="R42" s="2">
+        <v>58</v>
+      </c>
+      <c r="S42" s="2">
         <v>10</v>
       </c>
-      <c r="T42">
+      <c r="T42" s="4">
         <v>239</v>
       </c>
-      <c r="U42">
+      <c r="U42" s="2">
         <v>-10.1</v>
       </c>
-      <c r="V42">
+      <c r="V42" s="2">
         <v>7.27</v>
       </c>
-      <c r="W42">
+      <c r="W42" s="3">
         <v>108</v>
       </c>
-      <c r="X42">
+      <c r="X42" s="2">
         <v>101</v>
       </c>
       <c r="Y42" t="s">
@@ -6898,9 +6843,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:47">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B43">
         <v>2004</v>
@@ -6947,28 +6892,28 @@
       <c r="P43" t="s">
         <v>48</v>
       </c>
-      <c r="Q43">
+      <c r="Q43" s="2">
         <v>25</v>
       </c>
-      <c r="R43">
+      <c r="R43" s="2">
         <v>5</v>
       </c>
-      <c r="S43">
+      <c r="S43" s="2">
         <v>0</v>
       </c>
-      <c r="T43" t="s">
-        <v>48</v>
-      </c>
-      <c r="U43" t="s">
-        <v>48</v>
-      </c>
-      <c r="V43" t="s">
-        <v>48</v>
-      </c>
-      <c r="W43">
+      <c r="T43" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U43" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V43" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="W43" s="2">
         <v>6</v>
       </c>
-      <c r="X43" t="s">
+      <c r="X43" s="2" t="s">
         <v>48</v>
       </c>
       <c r="Y43" t="s">
@@ -6996,7 +6941,7 @@
         <v>101</v>
       </c>
       <c r="AG43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AH43" t="s">
         <v>102</v>
@@ -7041,7 +6986,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:47">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>65</v>
       </c>
@@ -7090,28 +7035,28 @@
       <c r="P44">
         <v>37</v>
       </c>
-      <c r="Q44">
+      <c r="Q44" s="2">
         <v>166</v>
       </c>
-      <c r="R44">
+      <c r="R44" s="2">
         <v>41</v>
       </c>
-      <c r="S44">
+      <c r="S44" s="2">
         <v>9</v>
       </c>
-      <c r="T44">
+      <c r="T44" s="2">
         <v>158</v>
       </c>
-      <c r="U44">
+      <c r="U44" s="2">
         <v>17.3</v>
       </c>
-      <c r="V44">
+      <c r="V44" s="2">
         <v>7.92</v>
       </c>
-      <c r="W44">
+      <c r="W44" s="2">
         <v>61</v>
       </c>
-      <c r="X44">
+      <c r="X44" s="2">
         <v>22</v>
       </c>
       <c r="Y44" t="s">
@@ -7184,7 +7129,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:47">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>84</v>
       </c>
@@ -7233,28 +7178,28 @@
       <c r="P45">
         <v>49</v>
       </c>
-      <c r="Q45">
+      <c r="Q45" s="2">
         <v>146</v>
       </c>
-      <c r="R45">
+      <c r="R45" s="2">
         <v>15</v>
       </c>
-      <c r="S45">
+      <c r="S45" s="2">
         <v>5</v>
       </c>
-      <c r="T45">
+      <c r="T45" s="2">
         <v>145</v>
       </c>
-      <c r="U45">
+      <c r="U45" s="2">
         <v>-8.3000000000000007</v>
       </c>
-      <c r="V45">
+      <c r="V45" s="2">
         <v>5.8</v>
       </c>
-      <c r="W45">
+      <c r="W45" s="2">
         <v>56</v>
       </c>
-      <c r="X45">
+      <c r="X45" s="2">
         <v>32</v>
       </c>
       <c r="Y45" t="s">
@@ -7327,7 +7272,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:47">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>98</v>
       </c>
@@ -7376,29 +7321,29 @@
       <c r="P46">
         <v>30</v>
       </c>
-      <c r="Q46">
-        <v>172</v>
-      </c>
-      <c r="R46">
-        <v>33</v>
-      </c>
-      <c r="S46">
-        <v>12</v>
-      </c>
-      <c r="T46">
-        <v>171</v>
-      </c>
-      <c r="U46">
+      <c r="Q46" s="2">
+        <v>86</v>
+      </c>
+      <c r="R46" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="S46" s="2">
+        <v>6</v>
+      </c>
+      <c r="T46" s="2">
+        <v>85.5</v>
+      </c>
+      <c r="U46" s="2">
         <v>-10.4</v>
       </c>
-      <c r="V46">
+      <c r="V46" s="2">
         <v>8.11</v>
       </c>
-      <c r="W46">
-        <v>78</v>
-      </c>
-      <c r="X46">
-        <v>40</v>
+      <c r="W46" s="2">
+        <v>39</v>
+      </c>
+      <c r="X46" s="2">
+        <v>20</v>
       </c>
       <c r="Y46" t="s">
         <v>58</v>
@@ -7470,15 +7415,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:47">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
       <c r="B47">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C47">
-        <v>36.349999999999994</v>
+        <v>36.15</v>
       </c>
       <c r="D47" t="s">
         <v>48</v>
@@ -7496,58 +7441,58 @@
         <v>48</v>
       </c>
       <c r="I47">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="J47">
+        <v>20</v>
+      </c>
+      <c r="K47">
         <v>13</v>
       </c>
-      <c r="K47">
-        <v>5</v>
-      </c>
       <c r="L47">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="M47">
-        <v>15.6</v>
+        <v>-12.8</v>
       </c>
       <c r="N47">
-        <v>10</v>
+        <v>7.67</v>
       </c>
       <c r="O47">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="P47">
-        <v>35</v>
-      </c>
-      <c r="Q47">
-        <v>62</v>
-      </c>
-      <c r="R47">
-        <v>10.5</v>
-      </c>
-      <c r="S47">
-        <v>1.5</v>
-      </c>
-      <c r="T47">
-        <v>62</v>
-      </c>
-      <c r="U47">
-        <v>18.3</v>
-      </c>
-      <c r="V47">
-        <v>10.1</v>
-      </c>
-      <c r="W47">
-        <v>22.5</v>
-      </c>
-      <c r="X47">
-        <v>12.5</v>
+        <v>56</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>86</v>
+      </c>
+      <c r="R47" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="S47" s="2">
+        <v>6</v>
+      </c>
+      <c r="T47" s="2">
+        <v>85.5</v>
+      </c>
+      <c r="U47" s="2">
+        <v>-10.4</v>
+      </c>
+      <c r="V47" s="2">
+        <v>8.11</v>
+      </c>
+      <c r="W47" s="2">
+        <v>39</v>
+      </c>
+      <c r="X47" s="2">
+        <v>20</v>
       </c>
       <c r="Y47" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="Z47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA47" t="s">
         <v>50</v>
@@ -7562,19 +7507,19 @@
         <v>53</v>
       </c>
       <c r="AE47" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="AF47" t="s">
         <v>55</v>
       </c>
       <c r="AG47" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="AH47" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="AI47">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ47" t="s">
         <v>58</v>
@@ -7583,7 +7528,7 @@
         <v>8</v>
       </c>
       <c r="AL47" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="AM47" t="s">
         <v>59</v>
@@ -7598,10 +7543,10 @@
         <v>60</v>
       </c>
       <c r="AQ47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AR47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS47" t="s">
         <v>62</v>
@@ -7610,18 +7555,18 @@
         <v>63</v>
       </c>
       <c r="AU47" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:47">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>145</v>
+        <v>46</v>
       </c>
       <c r="B48">
-        <v>1990</v>
+        <v>2011</v>
       </c>
       <c r="C48">
-        <v>39.549999999999997</v>
+        <v>36.349999999999994</v>
       </c>
       <c r="D48" t="s">
         <v>48</v>
@@ -7630,70 +7575,70 @@
         <v>115</v>
       </c>
       <c r="F48" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="G48">
         <v>8</v>
       </c>
-      <c r="H48">
-        <v>145</v>
+      <c r="H48" t="s">
+        <v>48</v>
       </c>
       <c r="I48">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="J48">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="K48">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="L48">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="M48">
-        <v>-11.66</v>
+        <v>15.6</v>
       </c>
       <c r="N48">
-        <v>8.24</v>
+        <v>10</v>
       </c>
       <c r="O48">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="P48">
-        <v>41</v>
-      </c>
-      <c r="Q48">
-        <v>150</v>
-      </c>
-      <c r="R48">
-        <v>56</v>
-      </c>
-      <c r="S48">
-        <v>3</v>
-      </c>
-      <c r="T48">
-        <v>141</v>
-      </c>
-      <c r="U48">
-        <v>-8.16</v>
-      </c>
-      <c r="V48">
-        <v>7.85</v>
-      </c>
-      <c r="W48">
+        <v>35</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>62</v>
+      </c>
+      <c r="R48" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="S48" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="T48" s="2">
+        <v>62</v>
+      </c>
+      <c r="U48" s="2">
+        <v>18.3</v>
+      </c>
+      <c r="V48" s="2">
+        <v>10.1</v>
+      </c>
+      <c r="W48" s="2">
+        <v>22.5</v>
+      </c>
+      <c r="X48" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="Y48" t="s">
         <v>49</v>
       </c>
-      <c r="X48">
-        <v>21</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>58</v>
-      </c>
       <c r="Z48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA48" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="AB48" t="s">
         <v>51</v>
@@ -7705,19 +7650,19 @@
         <v>53</v>
       </c>
       <c r="AE48" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="AF48" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="AG48" t="s">
         <v>56</v>
       </c>
       <c r="AH48" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="AI48">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AJ48" t="s">
         <v>58</v>
@@ -7726,7 +7671,7 @@
         <v>8</v>
       </c>
       <c r="AL48" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="AM48" t="s">
         <v>59</v>
@@ -7741,7 +7686,7 @@
         <v>60</v>
       </c>
       <c r="AQ48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AR48" t="s">
         <v>61</v>
@@ -7750,24 +7695,24 @@
         <v>62</v>
       </c>
       <c r="AT48" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="AU48" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:47">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="B49">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="C49">
-        <v>45.7</v>
-      </c>
-      <c r="D49">
-        <v>0.67399999999999993</v>
+        <v>39.549999999999997</v>
+      </c>
+      <c r="D49" t="s">
+        <v>48</v>
       </c>
       <c r="E49" t="s">
         <v>115</v>
@@ -7776,67 +7721,67 @@
         <v>107</v>
       </c>
       <c r="G49">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H49">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="I49">
-        <v>99</v>
-      </c>
-      <c r="J49" t="s">
-        <v>48</v>
-      </c>
-      <c r="K49" t="s">
-        <v>48</v>
+        <v>149</v>
+      </c>
+      <c r="J49">
+        <v>61</v>
+      </c>
+      <c r="K49">
+        <v>28</v>
       </c>
       <c r="L49">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="M49">
-        <v>-15.4</v>
+        <v>-11.66</v>
       </c>
       <c r="N49">
-        <v>9.9600000000000009</v>
+        <v>8.24</v>
       </c>
       <c r="O49">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="P49">
-        <v>33</v>
-      </c>
-      <c r="Q49">
-        <v>101</v>
-      </c>
-      <c r="R49" t="s">
-        <v>48</v>
-      </c>
-      <c r="S49" t="s">
-        <v>48</v>
-      </c>
-      <c r="T49">
-        <v>90</v>
-      </c>
-      <c r="U49">
-        <v>-12.1</v>
-      </c>
-      <c r="V49">
-        <v>9.9600000000000009</v>
-      </c>
-      <c r="W49">
-        <v>40</v>
-      </c>
-      <c r="X49">
-        <v>27</v>
+        <v>41</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>150</v>
+      </c>
+      <c r="R49" s="2">
+        <v>56</v>
+      </c>
+      <c r="S49" s="2">
+        <v>3</v>
+      </c>
+      <c r="T49" s="2">
+        <v>141</v>
+      </c>
+      <c r="U49" s="2">
+        <v>-8.16</v>
+      </c>
+      <c r="V49" s="2">
+        <v>7.85</v>
+      </c>
+      <c r="W49" s="2">
+        <v>49</v>
+      </c>
+      <c r="X49" s="2">
+        <v>21</v>
       </c>
       <c r="Y49" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="Z49">
         <v>3</v>
       </c>
       <c r="AA49" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="AB49" t="s">
         <v>51</v>
@@ -7848,34 +7793,34 @@
         <v>53</v>
       </c>
       <c r="AE49" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AF49" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="AG49" t="s">
         <v>56</v>
       </c>
       <c r="AH49" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="AI49">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AJ49" t="s">
         <v>58</v>
       </c>
       <c r="AK49">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AL49" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="AM49" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AN49" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AO49" t="s">
         <v>60</v>
@@ -7890,27 +7835,27 @@
         <v>61</v>
       </c>
       <c r="AS49" t="s">
-        <v>59</v>
-      </c>
-      <c r="AT49" t="e">
-        <v>#VALUE!</v>
+        <v>62</v>
+      </c>
+      <c r="AT49" t="s">
+        <v>70</v>
       </c>
       <c r="AU49" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:47">
+    <row r="50" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="B50">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C50">
-        <v>38.9</v>
+        <v>45.7</v>
       </c>
       <c r="D50">
-        <v>0.61499999999999999</v>
+        <v>0.67399999999999993</v>
       </c>
       <c r="E50" t="s">
         <v>115</v>
@@ -7919,58 +7864,58 @@
         <v>107</v>
       </c>
       <c r="G50">
-        <v>8</v>
-      </c>
-      <c r="H50" t="s">
-        <v>48</v>
+        <v>6</v>
+      </c>
+      <c r="H50">
+        <v>62</v>
       </c>
       <c r="I50">
+        <v>99</v>
+      </c>
+      <c r="J50" t="s">
+        <v>48</v>
+      </c>
+      <c r="K50" t="s">
+        <v>48</v>
+      </c>
+      <c r="L50">
+        <v>83</v>
+      </c>
+      <c r="M50">
+        <v>-15.4</v>
+      </c>
+      <c r="N50">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="O50">
+        <v>50</v>
+      </c>
+      <c r="P50">
+        <v>33</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>101</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S50" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T50" s="2">
+        <v>90</v>
+      </c>
+      <c r="U50" s="2">
+        <v>-12.1</v>
+      </c>
+      <c r="V50" s="2">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="W50" s="2">
         <v>40</v>
       </c>
-      <c r="J50">
-        <v>15</v>
-      </c>
-      <c r="K50">
-        <v>5</v>
-      </c>
-      <c r="L50" t="s">
-        <v>48</v>
-      </c>
-      <c r="M50" t="s">
-        <v>48</v>
-      </c>
-      <c r="N50" t="s">
-        <v>48</v>
-      </c>
-      <c r="O50" t="s">
-        <v>48</v>
-      </c>
-      <c r="P50" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q50">
-        <v>26</v>
-      </c>
-      <c r="R50">
-        <v>13</v>
-      </c>
-      <c r="S50">
-        <v>3</v>
-      </c>
-      <c r="T50" t="s">
-        <v>48</v>
-      </c>
-      <c r="U50" t="s">
-        <v>48</v>
-      </c>
-      <c r="V50" t="s">
-        <v>48</v>
-      </c>
-      <c r="W50" t="s">
-        <v>48</v>
-      </c>
-      <c r="X50" t="s">
-        <v>48</v>
+      <c r="X50" s="2">
+        <v>27</v>
       </c>
       <c r="Y50" t="s">
         <v>49</v>
@@ -7979,7 +7924,7 @@
         <v>3</v>
       </c>
       <c r="AA50" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="AB50" t="s">
         <v>51</v>
@@ -7991,7 +7936,7 @@
         <v>53</v>
       </c>
       <c r="AE50" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AF50" t="s">
         <v>101</v>
@@ -8000,25 +7945,25 @@
         <v>56</v>
       </c>
       <c r="AH50" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="AI50">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AJ50" t="s">
         <v>58</v>
       </c>
       <c r="AK50">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AL50" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="AM50" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AN50" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AO50" t="s">
         <v>60</v>
@@ -8035,25 +7980,25 @@
       <c r="AS50" t="s">
         <v>59</v>
       </c>
-      <c r="AT50" t="s">
-        <v>70</v>
+      <c r="AT50" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="AU50" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:47">
+    <row r="51" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B51">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="C51">
-        <v>40.700000000000003</v>
-      </c>
-      <c r="D51" t="s">
-        <v>48</v>
+        <v>38.9</v>
+      </c>
+      <c r="D51">
+        <v>0.61499999999999999</v>
       </c>
       <c r="E51" t="s">
         <v>115</v>
@@ -8064,56 +8009,56 @@
       <c r="G51">
         <v>8</v>
       </c>
-      <c r="H51">
-        <v>139</v>
+      <c r="H51" t="s">
+        <v>48</v>
       </c>
       <c r="I51">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="J51">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="K51">
+        <v>5</v>
+      </c>
+      <c r="L51" t="s">
+        <v>48</v>
+      </c>
+      <c r="M51" t="s">
+        <v>48</v>
+      </c>
+      <c r="N51" t="s">
+        <v>48</v>
+      </c>
+      <c r="O51" t="s">
+        <v>48</v>
+      </c>
+      <c r="P51" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>26</v>
+      </c>
+      <c r="R51" s="2">
         <v>13</v>
       </c>
-      <c r="L51">
-        <v>119</v>
-      </c>
-      <c r="M51">
-        <v>-11.1</v>
-      </c>
-      <c r="N51">
-        <v>6.87</v>
-      </c>
-      <c r="O51">
-        <v>60</v>
-      </c>
-      <c r="P51">
-        <v>37</v>
-      </c>
-      <c r="Q51">
-        <v>129</v>
-      </c>
-      <c r="R51">
-        <v>37</v>
-      </c>
-      <c r="S51">
-        <v>6</v>
-      </c>
-      <c r="T51">
-        <v>115</v>
-      </c>
-      <c r="U51">
-        <v>-8.8000000000000007</v>
-      </c>
-      <c r="V51">
-        <v>6.97</v>
-      </c>
-      <c r="W51">
-        <v>43</v>
-      </c>
-      <c r="X51">
-        <v>21</v>
+      <c r="S51" s="2">
+        <v>3</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U51" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V51" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="W51" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="X51" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="Y51" t="s">
         <v>49</v>
@@ -8134,7 +8079,7 @@
         <v>53</v>
       </c>
       <c r="AE51" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="AF51" t="s">
         <v>101</v>
@@ -8146,7 +8091,7 @@
         <v>68</v>
       </c>
       <c r="AI51">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AJ51" t="s">
         <v>58</v>
@@ -8155,7 +8100,7 @@
         <v>8</v>
       </c>
       <c r="AL51" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="AM51" t="s">
         <v>59</v>
@@ -8176,27 +8121,27 @@
         <v>61</v>
       </c>
       <c r="AS51" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AT51" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="AU51" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="1:47">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B52">
         <v>1997</v>
       </c>
       <c r="C52">
-        <v>43.75</v>
-      </c>
-      <c r="D52">
-        <v>0.63</v>
+        <v>40.700000000000003</v>
+      </c>
+      <c r="D52" t="s">
+        <v>48</v>
       </c>
       <c r="E52" t="s">
         <v>115</v>
@@ -8205,67 +8150,67 @@
         <v>107</v>
       </c>
       <c r="G52">
+        <v>8</v>
+      </c>
+      <c r="H52">
+        <v>139</v>
+      </c>
+      <c r="I52">
+        <v>132</v>
+      </c>
+      <c r="J52">
+        <v>36</v>
+      </c>
+      <c r="K52">
+        <v>13</v>
+      </c>
+      <c r="L52">
+        <v>119</v>
+      </c>
+      <c r="M52">
+        <v>-11.1</v>
+      </c>
+      <c r="N52">
+        <v>6.87</v>
+      </c>
+      <c r="O52">
+        <v>60</v>
+      </c>
+      <c r="P52">
+        <v>37</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>129</v>
+      </c>
+      <c r="R52" s="2">
+        <v>37</v>
+      </c>
+      <c r="S52" s="2">
         <v>6</v>
       </c>
-      <c r="H52" t="s">
-        <v>48</v>
-      </c>
-      <c r="I52">
-        <v>129</v>
-      </c>
-      <c r="J52">
-        <v>27</v>
-      </c>
-      <c r="K52">
-        <v>11</v>
-      </c>
-      <c r="L52">
-        <v>129</v>
-      </c>
-      <c r="M52">
-        <v>-11.7</v>
-      </c>
-      <c r="N52">
-        <v>8.1</v>
-      </c>
-      <c r="O52">
-        <v>70</v>
-      </c>
-      <c r="P52">
-        <v>26</v>
-      </c>
-      <c r="Q52">
-        <v>129</v>
-      </c>
-      <c r="R52">
-        <v>45</v>
-      </c>
-      <c r="S52">
-        <v>7</v>
-      </c>
-      <c r="T52">
-        <v>129</v>
-      </c>
-      <c r="U52">
-        <v>-7.7</v>
-      </c>
-      <c r="V52">
-        <v>8.1</v>
-      </c>
-      <c r="W52">
-        <v>45</v>
-      </c>
-      <c r="X52">
-        <v>12</v>
+      <c r="T52" s="2">
+        <v>115</v>
+      </c>
+      <c r="U52" s="2">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="V52" s="2">
+        <v>6.97</v>
+      </c>
+      <c r="W52" s="2">
+        <v>43</v>
+      </c>
+      <c r="X52" s="2">
+        <v>21</v>
       </c>
       <c r="Y52" t="s">
         <v>49</v>
       </c>
       <c r="Z52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA52" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="AB52" t="s">
         <v>51</v>
@@ -8274,7 +8219,7 @@
         <v>52</v>
       </c>
       <c r="AD52" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="AE52" t="s">
         <v>67</v>
@@ -8289,13 +8234,13 @@
         <v>68</v>
       </c>
       <c r="AI52">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AJ52" t="s">
         <v>58</v>
       </c>
       <c r="AK52">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AL52" t="s">
         <v>58</v>
@@ -8325,21 +8270,21 @@
         <v>82</v>
       </c>
       <c r="AU52" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:47">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B53">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C53">
-        <v>38.4</v>
-      </c>
-      <c r="D53" t="s">
-        <v>48</v>
+        <v>43.75</v>
+      </c>
+      <c r="D53">
+        <v>0.63</v>
       </c>
       <c r="E53" t="s">
         <v>115</v>
@@ -8348,67 +8293,67 @@
         <v>107</v>
       </c>
       <c r="G53">
-        <v>8</v>
-      </c>
-      <c r="H53">
-        <v>106</v>
+        <v>6</v>
+      </c>
+      <c r="H53" t="s">
+        <v>48</v>
       </c>
       <c r="I53">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="J53">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="K53">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L53">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="M53">
-        <v>-19.5</v>
+        <v>-11.7</v>
       </c>
       <c r="N53">
-        <v>14.61</v>
+        <v>8.1</v>
       </c>
       <c r="O53">
-        <v>67</v>
-      </c>
-      <c r="P53" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q53">
-        <v>124</v>
-      </c>
-      <c r="R53">
-        <v>40</v>
-      </c>
-      <c r="S53">
+        <v>70</v>
+      </c>
+      <c r="P53">
+        <v>26</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>129</v>
+      </c>
+      <c r="R53" s="2">
+        <v>45</v>
+      </c>
+      <c r="S53" s="2">
+        <v>7</v>
+      </c>
+      <c r="T53" s="2">
+        <v>129</v>
+      </c>
+      <c r="U53" s="2">
+        <v>-7.7</v>
+      </c>
+      <c r="V53" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="W53" s="2">
+        <v>45</v>
+      </c>
+      <c r="X53" s="2">
+        <v>12</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z53">
         <v>2</v>
       </c>
-      <c r="T53">
-        <v>117</v>
-      </c>
-      <c r="U53">
-        <v>-17.2</v>
-      </c>
-      <c r="V53">
-        <v>15.14</v>
-      </c>
-      <c r="W53">
-        <v>66</v>
-      </c>
-      <c r="X53" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y53" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z53">
-        <v>3</v>
-      </c>
       <c r="AA53" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="AB53" t="s">
         <v>51</v>
@@ -8417,34 +8362,34 @@
         <v>52</v>
       </c>
       <c r="AD53" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="AE53" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AF53" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="AG53" t="s">
         <v>56</v>
       </c>
       <c r="AH53" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="AI53">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AJ53" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="AK53">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AL53" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="AM53" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AN53" t="s">
         <v>59</v>
@@ -8459,7 +8404,7 @@
         <v>59</v>
       </c>
       <c r="AR53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AS53" t="s">
         <v>62</v>
@@ -8468,18 +8413,18 @@
         <v>82</v>
       </c>
       <c r="AU53" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:47">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B54">
         <v>1998</v>
       </c>
       <c r="C54">
-        <v>36.700000000000003</v>
+        <v>38.4</v>
       </c>
       <c r="D54" t="s">
         <v>48</v>
@@ -8494,54 +8439,54 @@
         <v>8</v>
       </c>
       <c r="H54">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="I54">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J54">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K54">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L54">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="M54">
-        <v>-18.5</v>
+        <v>-19.5</v>
       </c>
       <c r="N54">
-        <v>12.92</v>
+        <v>14.61</v>
       </c>
       <c r="O54">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="P54" t="s">
         <v>48</v>
       </c>
-      <c r="Q54">
-        <v>121</v>
-      </c>
-      <c r="R54">
-        <v>41</v>
-      </c>
-      <c r="S54">
-        <v>0</v>
-      </c>
-      <c r="T54">
-        <v>116</v>
-      </c>
-      <c r="U54">
-        <v>-13.9</v>
-      </c>
-      <c r="V54">
-        <v>12.92</v>
-      </c>
-      <c r="W54">
-        <v>50</v>
-      </c>
-      <c r="X54" t="s">
+      <c r="Q54" s="2">
+        <v>124</v>
+      </c>
+      <c r="R54" s="2">
+        <v>40</v>
+      </c>
+      <c r="S54" s="2">
+        <v>2</v>
+      </c>
+      <c r="T54" s="2">
+        <v>117</v>
+      </c>
+      <c r="U54" s="2">
+        <v>-17.2</v>
+      </c>
+      <c r="V54" s="2">
+        <v>15.14</v>
+      </c>
+      <c r="W54" s="2">
+        <v>66</v>
+      </c>
+      <c r="X54" s="2" t="s">
         <v>48</v>
       </c>
       <c r="Y54" t="s">
@@ -8563,13 +8508,13 @@
         <v>53</v>
       </c>
       <c r="AE54" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="AF54" t="s">
         <v>55</v>
       </c>
       <c r="AG54" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="AH54" t="s">
         <v>102</v>
@@ -8578,7 +8523,7 @@
         <v>18</v>
       </c>
       <c r="AJ54" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="AK54">
         <v>8</v>
@@ -8587,7 +8532,7 @@
         <v>49</v>
       </c>
       <c r="AM54" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AN54" t="s">
         <v>59</v>
@@ -8599,7 +8544,7 @@
         <v>60</v>
       </c>
       <c r="AQ54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AR54" t="s">
         <v>62</v>
@@ -8608,21 +8553,21 @@
         <v>62</v>
       </c>
       <c r="AT54" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="AU54" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:47">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="B55">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="C55">
-        <v>38.4</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="D55" t="s">
         <v>48</v>
@@ -8637,58 +8582,58 @@
         <v>8</v>
       </c>
       <c r="H55">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="I55">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="J55">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="K55">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="L55">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="M55">
-        <v>-11.7</v>
+        <v>-18.5</v>
       </c>
       <c r="N55">
-        <v>6.1</v>
+        <v>12.92</v>
       </c>
       <c r="O55">
-        <v>55</v>
-      </c>
-      <c r="P55">
-        <v>14</v>
-      </c>
-      <c r="Q55">
-        <v>54</v>
-      </c>
-      <c r="R55">
-        <v>8</v>
-      </c>
-      <c r="S55">
-        <v>4</v>
-      </c>
-      <c r="T55">
-        <v>53.5</v>
-      </c>
-      <c r="U55">
-        <v>-10.199999999999999</v>
-      </c>
-      <c r="V55">
-        <v>6.1</v>
-      </c>
-      <c r="W55">
-        <v>21.5</v>
-      </c>
-      <c r="X55">
-        <v>5</v>
+        <v>79</v>
+      </c>
+      <c r="P55" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>121</v>
+      </c>
+      <c r="R55" s="2">
+        <v>41</v>
+      </c>
+      <c r="S55" s="2">
+        <v>0</v>
+      </c>
+      <c r="T55" s="2">
+        <v>116</v>
+      </c>
+      <c r="U55" s="2">
+        <v>-13.9</v>
+      </c>
+      <c r="V55" s="2">
+        <v>12.92</v>
+      </c>
+      <c r="W55" s="2">
+        <v>50</v>
+      </c>
+      <c r="X55" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="Y55" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="Z55">
         <v>3</v>
@@ -8712,22 +8657,22 @@
         <v>55</v>
       </c>
       <c r="AG55" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="AH55" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="AI55">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AJ55" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="AK55">
         <v>8</v>
       </c>
       <c r="AL55" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="AM55" t="s">
         <v>59</v>
@@ -8745,30 +8690,30 @@
         <v>60</v>
       </c>
       <c r="AR55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS55" t="s">
         <v>62</v>
       </c>
       <c r="AT55" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="AU55" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:47">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B56">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="C56">
-        <v>42</v>
-      </c>
-      <c r="D56">
-        <v>0.66549999999999998</v>
+        <v>38.4</v>
+      </c>
+      <c r="D56" t="s">
+        <v>48</v>
       </c>
       <c r="E56" t="s">
         <v>115</v>
@@ -8780,55 +8725,55 @@
         <v>8</v>
       </c>
       <c r="H56">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="I56">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J56">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K56">
+        <v>15</v>
+      </c>
+      <c r="L56">
+        <v>106</v>
+      </c>
+      <c r="M56">
+        <v>-11.7</v>
+      </c>
+      <c r="N56">
+        <v>6.1</v>
+      </c>
+      <c r="O56">
+        <v>55</v>
+      </c>
+      <c r="P56">
+        <v>14</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>54</v>
+      </c>
+      <c r="R56" s="2">
+        <v>8</v>
+      </c>
+      <c r="S56" s="2">
+        <v>4</v>
+      </c>
+      <c r="T56" s="2">
+        <v>53.5</v>
+      </c>
+      <c r="U56" s="2">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="V56" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="W56" s="2">
+        <v>21.5</v>
+      </c>
+      <c r="X56" s="2">
         <v>5</v>
-      </c>
-      <c r="L56">
-        <v>109</v>
-      </c>
-      <c r="M56">
-        <v>-10.53</v>
-      </c>
-      <c r="N56">
-        <v>7.52</v>
-      </c>
-      <c r="O56">
-        <v>53</v>
-      </c>
-      <c r="P56">
-        <v>27</v>
-      </c>
-      <c r="Q56">
-        <v>116</v>
-      </c>
-      <c r="R56">
-        <v>32</v>
-      </c>
-      <c r="S56">
-        <v>3</v>
-      </c>
-      <c r="T56">
-        <v>116</v>
-      </c>
-      <c r="U56">
-        <v>-9.1999999999999993</v>
-      </c>
-      <c r="V56">
-        <v>7.22</v>
-      </c>
-      <c r="W56">
-        <v>50</v>
-      </c>
-      <c r="X56">
-        <v>37</v>
       </c>
       <c r="Y56" t="s">
         <v>49</v>
@@ -8849,7 +8794,7 @@
         <v>53</v>
       </c>
       <c r="AE56" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AF56" t="s">
         <v>55</v>
@@ -8861,7 +8806,7 @@
         <v>68</v>
       </c>
       <c r="AI56">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AJ56" t="s">
         <v>58</v>
@@ -8870,13 +8815,13 @@
         <v>8</v>
       </c>
       <c r="AL56" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="AM56" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AN56" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AO56" t="s">
         <v>60</v>
@@ -8885,7 +8830,7 @@
         <v>60</v>
       </c>
       <c r="AQ56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AR56" t="s">
         <v>61</v>
@@ -8894,24 +8839,24 @@
         <v>62</v>
       </c>
       <c r="AT56" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="AU56" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:47">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B57">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C57">
-        <v>69.8</v>
+        <v>42</v>
       </c>
       <c r="D57">
-        <v>0.56000000000000005</v>
+        <v>0.66549999999999998</v>
       </c>
       <c r="E57" t="s">
         <v>115</v>
@@ -8923,61 +8868,61 @@
         <v>8</v>
       </c>
       <c r="H57">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I57">
-        <v>371</v>
+        <v>111</v>
       </c>
       <c r="J57">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="K57">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="L57">
-        <v>360</v>
+        <v>109</v>
       </c>
       <c r="M57">
-        <v>14</v>
+        <v>-10.53</v>
       </c>
       <c r="N57">
-        <v>6.5</v>
+        <v>7.52</v>
       </c>
       <c r="O57">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="P57">
-        <v>51</v>
-      </c>
-      <c r="Q57">
-        <v>376</v>
-      </c>
-      <c r="R57">
-        <v>65</v>
-      </c>
-      <c r="S57">
-        <v>8</v>
-      </c>
-      <c r="T57">
-        <v>368</v>
-      </c>
-      <c r="U57">
-        <v>14.8</v>
-      </c>
-      <c r="V57">
-        <v>6.3</v>
-      </c>
-      <c r="W57">
-        <v>96</v>
-      </c>
-      <c r="X57">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>116</v>
+      </c>
+      <c r="R57" s="2">
+        <v>32</v>
+      </c>
+      <c r="S57" s="2">
+        <v>3</v>
+      </c>
+      <c r="T57" s="2">
+        <v>116</v>
+      </c>
+      <c r="U57" s="2">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="V57" s="2">
+        <v>7.22</v>
+      </c>
+      <c r="W57" s="2">
+        <v>50</v>
+      </c>
+      <c r="X57" s="2">
+        <v>37</v>
       </c>
       <c r="Y57" t="s">
         <v>49</v>
       </c>
       <c r="Z57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA57" t="s">
         <v>66</v>
@@ -8992,7 +8937,7 @@
         <v>53</v>
       </c>
       <c r="AE57" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="AF57" t="s">
         <v>55</v>
@@ -9004,7 +8949,7 @@
         <v>68</v>
       </c>
       <c r="AI57">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AJ57" t="s">
         <v>58</v>
@@ -9040,21 +8985,21 @@
         <v>70</v>
       </c>
       <c r="AU57" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:47">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B58">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C58">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="D58" t="s">
-        <v>48</v>
+        <v>69.8</v>
+      </c>
+      <c r="D58">
+        <v>0.56000000000000005</v>
       </c>
       <c r="E58" t="s">
         <v>115</v>
@@ -9065,62 +9010,62 @@
       <c r="G58">
         <v>8</v>
       </c>
-      <c r="H58" t="s">
-        <v>48</v>
+      <c r="H58">
+        <v>82</v>
       </c>
       <c r="I58">
-        <v>138</v>
+        <v>371</v>
       </c>
       <c r="J58">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="K58">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="L58">
-        <v>135</v>
+        <v>360</v>
       </c>
       <c r="M58">
-        <v>-14.22</v>
+        <v>14</v>
       </c>
       <c r="N58">
-        <v>9.41</v>
+        <v>6.5</v>
       </c>
       <c r="O58">
-        <v>74</v>
-      </c>
-      <c r="P58" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q58">
-        <v>135</v>
-      </c>
-      <c r="R58">
-        <v>30</v>
-      </c>
-      <c r="S58">
-        <v>4</v>
-      </c>
-      <c r="T58">
-        <v>132</v>
-      </c>
-      <c r="U58">
-        <v>-11.35</v>
-      </c>
-      <c r="V58">
-        <v>9.65</v>
-      </c>
-      <c r="W58">
-        <v>54</v>
-      </c>
-      <c r="X58" t="s">
-        <v>48</v>
+        <v>126</v>
+      </c>
+      <c r="P58">
+        <v>51</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>376</v>
+      </c>
+      <c r="R58" s="2">
+        <v>65</v>
+      </c>
+      <c r="S58" s="2">
+        <v>8</v>
+      </c>
+      <c r="T58" s="2">
+        <v>368</v>
+      </c>
+      <c r="U58" s="2">
+        <v>14.8</v>
+      </c>
+      <c r="V58" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="W58" s="2">
+        <v>96</v>
+      </c>
+      <c r="X58" s="2">
+        <v>40</v>
       </c>
       <c r="Y58" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="Z58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA58" t="s">
         <v>66</v>
@@ -9135,7 +9080,7 @@
         <v>53</v>
       </c>
       <c r="AE58" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="AF58" t="s">
         <v>55</v>
@@ -9144,25 +9089,25 @@
         <v>56</v>
       </c>
       <c r="AH58" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="AI58">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AJ58" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="AK58">
         <v>8</v>
       </c>
       <c r="AL58" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="AM58" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AN58" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AO58" t="s">
         <v>60</v>
@@ -9174,7 +9119,7 @@
         <v>59</v>
       </c>
       <c r="AR58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AS58" t="s">
         <v>62</v>
@@ -9186,15 +9131,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:47">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="B59">
         <v>2004</v>
       </c>
       <c r="C59">
-        <v>39.799999999999997</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="D59" t="s">
         <v>48</v>
@@ -9208,65 +9153,65 @@
       <c r="G59">
         <v>8</v>
       </c>
-      <c r="H59">
-        <v>111</v>
+      <c r="H59" t="s">
+        <v>48</v>
       </c>
       <c r="I59">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="J59">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K59">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L59">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="M59">
-        <v>-9.36</v>
+        <v>-14.22</v>
       </c>
       <c r="N59">
-        <v>7.71</v>
+        <v>9.41</v>
       </c>
       <c r="O59">
-        <v>52</v>
-      </c>
-      <c r="P59">
-        <v>36</v>
-      </c>
-      <c r="Q59">
-        <v>94</v>
-      </c>
-      <c r="R59">
-        <v>19</v>
-      </c>
-      <c r="S59">
-        <v>4</v>
-      </c>
-      <c r="T59">
-        <v>93</v>
-      </c>
-      <c r="U59">
-        <v>-6.87</v>
-      </c>
-      <c r="V59">
-        <v>8</v>
-      </c>
-      <c r="W59">
-        <v>47</v>
-      </c>
-      <c r="X59">
-        <v>29</v>
+        <v>74</v>
+      </c>
+      <c r="P59" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>67.5</v>
+      </c>
+      <c r="R59" s="2">
+        <v>15</v>
+      </c>
+      <c r="S59" s="2">
+        <v>2</v>
+      </c>
+      <c r="T59" s="2">
+        <v>66</v>
+      </c>
+      <c r="U59" s="2">
+        <v>-11.35</v>
+      </c>
+      <c r="V59" s="2">
+        <v>9.65</v>
+      </c>
+      <c r="W59" s="2">
+        <v>27</v>
+      </c>
+      <c r="X59" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="Y59" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="Z59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA59" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="AB59" t="s">
         <v>51</v>
@@ -9278,34 +9223,34 @@
         <v>53</v>
       </c>
       <c r="AE59" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AF59" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="AG59" t="s">
         <v>56</v>
       </c>
       <c r="AH59" t="s">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c r="AI59">
         <v>22</v>
       </c>
       <c r="AJ59" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="AK59">
         <v>8</v>
       </c>
       <c r="AL59" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="AM59" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AN59" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AO59" t="s">
         <v>60</v>
@@ -9317,7 +9262,7 @@
         <v>59</v>
       </c>
       <c r="AR59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS59" t="s">
         <v>62</v>
@@ -9329,18 +9274,18 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:47">
+    <row r="60" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="B60">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="C60">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="D60">
-        <v>0.63</v>
+        <v>39.799999999999997</v>
+      </c>
+      <c r="D60" t="s">
+        <v>48</v>
       </c>
       <c r="E60" t="s">
         <v>115</v>
@@ -9348,59 +9293,59 @@
       <c r="F60" t="s">
         <v>107</v>
       </c>
-      <c r="G60" t="s">
-        <v>48</v>
-      </c>
-      <c r="H60" t="s">
-        <v>48</v>
+      <c r="G60">
+        <v>8</v>
+      </c>
+      <c r="H60">
+        <v>111</v>
       </c>
       <c r="I60">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="J60">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K60">
-        <v>2</v>
-      </c>
-      <c r="L60" t="s">
-        <v>48</v>
-      </c>
-      <c r="M60" t="s">
-        <v>48</v>
-      </c>
-      <c r="N60" t="s">
-        <v>48</v>
+        <v>10</v>
+      </c>
+      <c r="L60">
+        <v>93</v>
+      </c>
+      <c r="M60">
+        <v>-9.36</v>
+      </c>
+      <c r="N60">
+        <v>7.71</v>
       </c>
       <c r="O60">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="P60">
-        <v>12</v>
-      </c>
-      <c r="Q60">
-        <v>85</v>
-      </c>
-      <c r="R60">
-        <v>22</v>
-      </c>
-      <c r="S60">
+        <v>36</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>94</v>
+      </c>
+      <c r="R60" s="2">
+        <v>19</v>
+      </c>
+      <c r="S60" s="2">
         <v>4</v>
       </c>
-      <c r="T60" t="s">
-        <v>48</v>
-      </c>
-      <c r="U60" t="s">
-        <v>48</v>
-      </c>
-      <c r="V60" t="s">
-        <v>48</v>
-      </c>
-      <c r="W60">
-        <v>20</v>
-      </c>
-      <c r="X60">
-        <v>7</v>
+      <c r="T60" s="2">
+        <v>93</v>
+      </c>
+      <c r="U60" s="2">
+        <v>-6.87</v>
+      </c>
+      <c r="V60" s="2">
+        <v>8</v>
+      </c>
+      <c r="W60" s="2">
+        <v>47</v>
+      </c>
+      <c r="X60" s="2">
+        <v>29</v>
       </c>
       <c r="Y60" t="s">
         <v>49</v>
@@ -9409,7 +9354,7 @@
         <v>2</v>
       </c>
       <c r="AA60" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="AB60" t="s">
         <v>51</v>
@@ -9421,34 +9366,34 @@
         <v>53</v>
       </c>
       <c r="AE60" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="AF60" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="AG60" t="s">
         <v>56</v>
       </c>
       <c r="AH60" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="AI60">
         <v>22</v>
       </c>
       <c r="AJ60" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="AK60">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AL60" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="AM60" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AN60" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AO60" t="s">
         <v>60</v>
@@ -9472,18 +9417,18 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:47">
+    <row r="61" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="B61">
         <v>2007</v>
       </c>
-      <c r="C61" t="s">
-        <v>48</v>
-      </c>
-      <c r="D61" t="s">
-        <v>48</v>
+      <c r="C61">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="D61">
+        <v>0.63</v>
       </c>
       <c r="E61" t="s">
         <v>115</v>
@@ -9498,58 +9443,58 @@
         <v>48</v>
       </c>
       <c r="I61">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="J61">
+        <v>17</v>
+      </c>
+      <c r="K61">
+        <v>2</v>
+      </c>
+      <c r="L61" t="s">
+        <v>48</v>
+      </c>
+      <c r="M61" t="s">
+        <v>48</v>
+      </c>
+      <c r="N61" t="s">
+        <v>48</v>
+      </c>
+      <c r="O61">
+        <v>33</v>
+      </c>
+      <c r="P61">
+        <v>12</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>85</v>
+      </c>
+      <c r="R61" s="2">
         <v>22</v>
       </c>
-      <c r="K61" t="s">
-        <v>48</v>
-      </c>
-      <c r="L61">
-        <v>55</v>
-      </c>
-      <c r="M61">
-        <v>13.7</v>
-      </c>
-      <c r="N61">
-        <v>9</v>
-      </c>
-      <c r="O61">
-        <v>34</v>
-      </c>
-      <c r="P61" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q61">
-        <v>50</v>
-      </c>
-      <c r="R61">
-        <v>15</v>
-      </c>
-      <c r="S61" t="s">
-        <v>48</v>
-      </c>
-      <c r="T61">
-        <v>50</v>
-      </c>
-      <c r="U61">
-        <v>14</v>
-      </c>
-      <c r="V61">
-        <v>10.7</v>
-      </c>
-      <c r="W61">
-        <v>35</v>
-      </c>
-      <c r="X61" t="s">
-        <v>48</v>
+      <c r="S61" s="2">
+        <v>4</v>
+      </c>
+      <c r="T61" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U61" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V61" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="W61" s="2">
+        <v>20</v>
+      </c>
+      <c r="X61" s="2">
+        <v>7</v>
       </c>
       <c r="Y61" t="s">
         <v>49</v>
       </c>
       <c r="Z61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA61" t="s">
         <v>66</v>
@@ -9564,7 +9509,7 @@
         <v>53</v>
       </c>
       <c r="AE61" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AF61" t="s">
         <v>55</v>
@@ -9576,13 +9521,13 @@
         <v>68</v>
       </c>
       <c r="AI61">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AJ61" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="AK61">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AL61" t="s">
         <v>69</v>
@@ -9606,7 +9551,7 @@
         <v>61</v>
       </c>
       <c r="AS61" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AT61" t="s">
         <v>70</v>
@@ -9615,18 +9560,18 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:47">
+    <row r="62" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B62">
-        <v>2013</v>
-      </c>
-      <c r="C62">
-        <v>44.05</v>
-      </c>
-      <c r="D62">
-        <v>0.48499999999999999</v>
+        <v>2007</v>
+      </c>
+      <c r="C62" t="s">
+        <v>48</v>
+      </c>
+      <c r="D62" t="s">
+        <v>48</v>
       </c>
       <c r="E62" t="s">
         <v>115</v>
@@ -9634,59 +9579,59 @@
       <c r="F62" t="s">
         <v>107</v>
       </c>
-      <c r="G62">
-        <v>12</v>
+      <c r="G62" t="s">
+        <v>48</v>
       </c>
       <c r="H62" t="s">
         <v>48</v>
       </c>
       <c r="I62">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="J62">
-        <v>7</v>
-      </c>
-      <c r="K62">
-        <v>2</v>
+        <v>22</v>
+      </c>
+      <c r="K62" t="s">
+        <v>48</v>
       </c>
       <c r="L62">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="M62">
-        <v>-8.1999999999999993</v>
+        <v>13.7</v>
       </c>
       <c r="N62">
-        <v>10.1</v>
+        <v>9</v>
       </c>
       <c r="O62">
-        <v>10</v>
-      </c>
-      <c r="P62">
-        <v>9</v>
-      </c>
-      <c r="Q62">
-        <v>18</v>
-      </c>
-      <c r="R62">
-        <v>3</v>
-      </c>
-      <c r="S62">
-        <v>0</v>
-      </c>
-      <c r="T62">
-        <v>18</v>
-      </c>
-      <c r="U62">
-        <v>-4.5999999999999996</v>
-      </c>
-      <c r="V62">
-        <v>8.66</v>
-      </c>
-      <c r="W62">
-        <v>7</v>
-      </c>
-      <c r="X62">
-        <v>7</v>
+        <v>34</v>
+      </c>
+      <c r="P62" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>50</v>
+      </c>
+      <c r="R62" s="2">
+        <v>15</v>
+      </c>
+      <c r="S62" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T62" s="2">
+        <v>50</v>
+      </c>
+      <c r="U62" s="2">
+        <v>14</v>
+      </c>
+      <c r="V62" s="2">
+        <v>10.7</v>
+      </c>
+      <c r="W62" s="2">
+        <v>35</v>
+      </c>
+      <c r="X62" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="Y62" t="s">
         <v>49</v>
@@ -9704,10 +9649,10 @@
         <v>52</v>
       </c>
       <c r="AD62" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="AE62" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AF62" t="s">
         <v>55</v>
@@ -9716,22 +9661,22 @@
         <v>56</v>
       </c>
       <c r="AH62" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="AI62">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AJ62" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="AK62">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AL62" t="s">
         <v>69</v>
       </c>
       <c r="AM62" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AN62" t="s">
         <v>59</v>
@@ -9743,33 +9688,33 @@
         <v>60</v>
       </c>
       <c r="AQ62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AR62" t="s">
         <v>61</v>
       </c>
       <c r="AS62" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AT62" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="AU62" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:47">
+    <row r="63" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>155</v>
-      </c>
-      <c r="B63" t="s">
-        <v>48</v>
+        <v>152</v>
+      </c>
+      <c r="B63">
+        <v>2013</v>
       </c>
       <c r="C63">
-        <v>42</v>
+        <v>44.05</v>
       </c>
       <c r="D63">
-        <v>0.71691199999999999</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="E63" t="s">
         <v>115</v>
@@ -9778,67 +9723,67 @@
         <v>107</v>
       </c>
       <c r="G63">
-        <v>8</v>
-      </c>
-      <c r="H63">
-        <v>105</v>
+        <v>12</v>
+      </c>
+      <c r="H63" t="s">
+        <v>48</v>
       </c>
       <c r="I63">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="J63">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="K63">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="L63">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="M63">
-        <v>-8.9</v>
+        <v>-8.1999999999999993</v>
       </c>
       <c r="N63">
-        <v>4.5199999999999996</v>
+        <v>10.1</v>
       </c>
       <c r="O63">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="P63">
-        <v>4</v>
-      </c>
-      <c r="Q63">
-        <v>80</v>
-      </c>
-      <c r="R63">
-        <v>39</v>
-      </c>
-      <c r="S63">
-        <v>6</v>
-      </c>
-      <c r="T63">
-        <v>73</v>
-      </c>
-      <c r="U63">
-        <v>-7.8</v>
-      </c>
-      <c r="V63">
-        <v>8</v>
-      </c>
-      <c r="W63">
-        <v>25</v>
-      </c>
-      <c r="X63">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>18</v>
+      </c>
+      <c r="R63" s="2">
+        <v>3</v>
+      </c>
+      <c r="S63" s="2">
+        <v>0</v>
+      </c>
+      <c r="T63" s="2">
+        <v>18</v>
+      </c>
+      <c r="U63" s="2">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="V63" s="2">
+        <v>8.66</v>
+      </c>
+      <c r="W63" s="2">
+        <v>7</v>
+      </c>
+      <c r="X63" s="2">
+        <v>7</v>
       </c>
       <c r="Y63" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="Z63">
         <v>3</v>
       </c>
       <c r="AA63" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="AB63" t="s">
         <v>51</v>
@@ -9847,34 +9792,34 @@
         <v>52</v>
       </c>
       <c r="AD63" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="AE63" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="AF63" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="AG63" t="s">
         <v>56</v>
       </c>
       <c r="AH63" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="AI63">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AJ63" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="AK63">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AL63" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="AM63" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AN63" t="s">
         <v>59</v>
@@ -9886,10 +9831,10 @@
         <v>60</v>
       </c>
       <c r="AQ63" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AR63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AS63" t="s">
         <v>62</v>
@@ -9898,81 +9843,81 @@
         <v>82</v>
       </c>
       <c r="AU63" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:47">
+    <row r="64" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>156</v>
-      </c>
-      <c r="B64">
-        <v>1994</v>
+        <v>153</v>
+      </c>
+      <c r="B64" t="s">
+        <v>48</v>
       </c>
       <c r="C64">
-        <v>41.5</v>
+        <v>42</v>
       </c>
       <c r="D64">
-        <v>0.64800000000000002</v>
+        <v>0.71691199999999999</v>
       </c>
       <c r="E64" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="F64" t="s">
+        <v>107</v>
+      </c>
+      <c r="G64">
+        <v>8</v>
+      </c>
+      <c r="H64">
+        <v>105</v>
+      </c>
+      <c r="I64">
+        <v>85</v>
+      </c>
+      <c r="J64">
+        <v>38</v>
+      </c>
+      <c r="K64">
+        <v>14</v>
+      </c>
+      <c r="L64">
         <v>76</v>
       </c>
-      <c r="G64">
+      <c r="M64">
+        <v>-8.9</v>
+      </c>
+      <c r="N64">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="O64">
+        <v>21</v>
+      </c>
+      <c r="P64">
+        <v>4</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>80</v>
+      </c>
+      <c r="R64" s="2">
+        <v>39</v>
+      </c>
+      <c r="S64" s="2">
         <v>6</v>
       </c>
-      <c r="H64">
-        <v>160</v>
-      </c>
-      <c r="I64">
-        <v>76</v>
-      </c>
-      <c r="J64">
+      <c r="T64" s="2">
+        <v>73</v>
+      </c>
+      <c r="U64" s="2">
+        <v>-7.8</v>
+      </c>
+      <c r="V64" s="2">
+        <v>8</v>
+      </c>
+      <c r="W64" s="2">
         <v>25</v>
       </c>
-      <c r="K64">
+      <c r="X64" s="2">
         <v>13</v>
-      </c>
-      <c r="L64">
-        <v>65</v>
-      </c>
-      <c r="M64">
-        <v>-11.92</v>
-      </c>
-      <c r="N64">
-        <v>6.84</v>
-      </c>
-      <c r="O64">
-        <v>47</v>
-      </c>
-      <c r="P64">
-        <v>15</v>
-      </c>
-      <c r="Q64">
-        <v>76</v>
-      </c>
-      <c r="R64">
-        <v>27</v>
-      </c>
-      <c r="S64">
-        <v>3</v>
-      </c>
-      <c r="T64">
-        <v>75</v>
-      </c>
-      <c r="U64">
-        <v>-8.8000000000000007</v>
-      </c>
-      <c r="V64">
-        <v>5.76</v>
-      </c>
-      <c r="W64">
-        <v>41</v>
-      </c>
-      <c r="X64">
-        <v>7</v>
       </c>
       <c r="Y64" t="s">
         <v>58</v>
@@ -9981,7 +9926,7 @@
         <v>3</v>
       </c>
       <c r="AA64" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="AB64" t="s">
         <v>51</v>
@@ -9996,22 +9941,22 @@
         <v>67</v>
       </c>
       <c r="AF64" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="AG64" t="s">
         <v>56</v>
       </c>
       <c r="AH64" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="AI64">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AJ64" t="s">
         <v>58</v>
       </c>
       <c r="AK64">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AL64" t="s">
         <v>58</v>
@@ -10038,93 +9983,93 @@
         <v>62</v>
       </c>
       <c r="AT64" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="AU64" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="65" spans="1:47">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="B65">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="C65">
-        <v>39.4</v>
+        <v>41.5</v>
       </c>
       <c r="D65">
-        <v>0.66835350000000004</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="E65" t="s">
-        <v>76</v>
+        <v>159</v>
       </c>
       <c r="F65" t="s">
         <v>76</v>
       </c>
       <c r="G65">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H65">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="I65">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J65">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K65">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L65">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="M65">
-        <v>-16.93</v>
+        <v>-11.92</v>
       </c>
       <c r="N65">
-        <v>8.2200000000000006</v>
+        <v>6.84</v>
       </c>
       <c r="O65">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P65">
-        <v>43</v>
-      </c>
-      <c r="Q65">
+        <v>15</v>
+      </c>
+      <c r="Q65" s="2">
         <v>76</v>
       </c>
-      <c r="R65">
-        <v>19</v>
-      </c>
-      <c r="S65">
-        <v>4</v>
-      </c>
-      <c r="T65">
-        <v>76</v>
-      </c>
-      <c r="U65">
-        <v>-14.07</v>
-      </c>
-      <c r="V65">
-        <v>8.2200000000000006</v>
-      </c>
-      <c r="W65">
-        <v>38</v>
-      </c>
-      <c r="X65">
-        <v>38</v>
+      <c r="R65" s="2">
+        <v>27</v>
+      </c>
+      <c r="S65" s="2">
+        <v>3</v>
+      </c>
+      <c r="T65" s="2">
+        <v>75</v>
+      </c>
+      <c r="U65" s="2">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="V65" s="2">
+        <v>5.76</v>
+      </c>
+      <c r="W65" s="2">
+        <v>41</v>
+      </c>
+      <c r="X65" s="2">
+        <v>7</v>
       </c>
       <c r="Y65" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="Z65">
         <v>3</v>
       </c>
       <c r="AA65" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="AB65" t="s">
         <v>51</v>
@@ -10139,22 +10084,22 @@
         <v>67</v>
       </c>
       <c r="AF65" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AG65" t="s">
         <v>56</v>
       </c>
       <c r="AH65" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI65" t="s">
-        <v>48</v>
+        <v>102</v>
+      </c>
+      <c r="AI65">
+        <v>20</v>
       </c>
       <c r="AJ65" t="s">
         <v>58</v>
       </c>
       <c r="AK65">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AL65" t="s">
         <v>58</v>
@@ -10175,7 +10120,7 @@
         <v>59</v>
       </c>
       <c r="AR65" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS65" t="s">
         <v>62</v>
@@ -10187,18 +10132,18 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:47">
+    <row r="66" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B66">
         <v>1997</v>
       </c>
       <c r="C66">
-        <v>39.799999999999997</v>
+        <v>39.4</v>
       </c>
       <c r="D66">
-        <v>0.60814699999999999</v>
+        <v>0.66835350000000004</v>
       </c>
       <c r="E66" t="s">
         <v>76</v>
@@ -10210,64 +10155,64 @@
         <v>8</v>
       </c>
       <c r="H66">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="I66">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="J66">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K66">
         <v>11</v>
       </c>
       <c r="L66">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="M66">
-        <v>-13.59</v>
+        <v>-16.93</v>
       </c>
       <c r="N66">
-        <v>8.4499999999999993</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="O66">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="P66">
-        <v>34</v>
-      </c>
-      <c r="Q66">
-        <v>50</v>
-      </c>
-      <c r="R66">
-        <v>20.5</v>
-      </c>
-      <c r="S66">
-        <v>1</v>
-      </c>
-      <c r="T66">
-        <v>49.5</v>
-      </c>
-      <c r="U66">
-        <v>-9.3000000000000007</v>
-      </c>
-      <c r="V66">
-        <v>8.4499999999999993</v>
-      </c>
-      <c r="W66">
-        <v>18</v>
-      </c>
-      <c r="X66">
-        <v>9.5</v>
+        <v>43</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>76</v>
+      </c>
+      <c r="R66" s="2">
+        <v>19</v>
+      </c>
+      <c r="S66" s="2">
+        <v>4</v>
+      </c>
+      <c r="T66" s="2">
+        <v>76</v>
+      </c>
+      <c r="U66" s="2">
+        <v>-14.07</v>
+      </c>
+      <c r="V66" s="2">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="W66" s="2">
+        <v>38</v>
+      </c>
+      <c r="X66" s="2">
+        <v>38</v>
       </c>
       <c r="Y66" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="Z66">
         <v>3</v>
       </c>
       <c r="AA66" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="AB66" t="s">
         <v>51</v>
@@ -10282,22 +10227,22 @@
         <v>67</v>
       </c>
       <c r="AF66" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AG66" t="s">
         <v>56</v>
       </c>
       <c r="AH66" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI66">
-        <v>20</v>
+        <v>48</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>48</v>
       </c>
       <c r="AJ66" t="s">
         <v>58</v>
       </c>
       <c r="AK66">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL66" t="s">
         <v>58</v>
@@ -10318,30 +10263,30 @@
         <v>59</v>
       </c>
       <c r="AR66" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AS66" t="s">
         <v>62</v>
       </c>
       <c r="AT66" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="AU66" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:47">
+    <row r="67" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="B67">
         <v>1997</v>
       </c>
       <c r="C67">
-        <v>41.349999999999994</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="D67">
-        <v>0.62626300000000001</v>
+        <v>0.60814699999999999</v>
       </c>
       <c r="E67" t="s">
         <v>76</v>
@@ -10353,54 +10298,54 @@
         <v>8</v>
       </c>
       <c r="H67">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="I67">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J67">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="K67">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L67">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="M67">
-        <v>-11.52</v>
+        <v>-13.59</v>
       </c>
       <c r="N67">
         <v>8.4499999999999993</v>
       </c>
       <c r="O67">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="P67">
-        <v>26</v>
-      </c>
-      <c r="Q67">
+        <v>34</v>
+      </c>
+      <c r="Q67" s="2">
         <v>50</v>
       </c>
-      <c r="R67">
+      <c r="R67" s="2">
         <v>20.5</v>
       </c>
-      <c r="S67">
+      <c r="S67" s="2">
         <v>1</v>
       </c>
-      <c r="T67">
+      <c r="T67" s="2">
         <v>49.5</v>
       </c>
-      <c r="U67">
+      <c r="U67" s="2">
         <v>-9.3000000000000007</v>
       </c>
-      <c r="V67">
+      <c r="V67" s="2">
         <v>8.4499999999999993</v>
       </c>
-      <c r="W67">
+      <c r="W67" s="2">
         <v>18</v>
       </c>
-      <c r="X67">
+      <c r="X67" s="2">
         <v>9.5</v>
       </c>
       <c r="Y67" t="s">
@@ -10473,21 +10418,21 @@
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="1:47">
+    <row r="68" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="B68">
         <v>1997</v>
       </c>
       <c r="C68">
-        <v>41</v>
+        <v>41.349999999999994</v>
       </c>
       <c r="D68">
-        <v>0.61480899999999994</v>
+        <v>0.62626300000000001</v>
       </c>
       <c r="E68" t="s">
-        <v>161</v>
+        <v>76</v>
       </c>
       <c r="F68" t="s">
         <v>76</v>
@@ -10496,61 +10441,61 @@
         <v>8</v>
       </c>
       <c r="H68">
-        <v>177</v>
+        <v>123</v>
       </c>
       <c r="I68">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J68">
+        <v>38</v>
+      </c>
+      <c r="K68">
+        <v>12</v>
+      </c>
+      <c r="L68">
+        <v>87</v>
+      </c>
+      <c r="M68">
+        <v>-11.52</v>
+      </c>
+      <c r="N68">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="O68">
+        <v>44</v>
+      </c>
+      <c r="P68">
         <v>26</v>
       </c>
-      <c r="K68">
-        <v>10</v>
-      </c>
-      <c r="L68">
-        <v>91</v>
-      </c>
-      <c r="M68">
-        <v>-11.66</v>
-      </c>
-      <c r="N68">
-        <v>10.08</v>
-      </c>
-      <c r="O68">
-        <v>53</v>
-      </c>
-      <c r="P68">
-        <v>32</v>
-      </c>
-      <c r="Q68">
-        <v>102</v>
-      </c>
-      <c r="R68">
-        <v>41</v>
-      </c>
-      <c r="S68">
-        <v>6</v>
-      </c>
-      <c r="T68">
-        <v>100</v>
-      </c>
-      <c r="U68">
-        <v>-6.78</v>
-      </c>
-      <c r="V68">
-        <v>10.08</v>
-      </c>
-      <c r="W68">
-        <v>30</v>
-      </c>
-      <c r="X68">
-        <v>19</v>
+      <c r="Q68" s="2">
+        <v>50</v>
+      </c>
+      <c r="R68" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="S68" s="2">
+        <v>1</v>
+      </c>
+      <c r="T68" s="2">
+        <v>49.5</v>
+      </c>
+      <c r="U68" s="2">
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="V68" s="2">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="W68" s="2">
+        <v>18</v>
+      </c>
+      <c r="X68" s="2">
+        <v>9.5</v>
       </c>
       <c r="Y68" t="s">
         <v>58</v>
       </c>
       <c r="Z68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA68" t="s">
         <v>66</v>
@@ -10568,7 +10513,7 @@
         <v>67</v>
       </c>
       <c r="AF68" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="AG68" t="s">
         <v>56</v>
@@ -10583,7 +10528,7 @@
         <v>58</v>
       </c>
       <c r="AK68">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AL68" t="s">
         <v>58</v>
@@ -10604,7 +10549,7 @@
         <v>59</v>
       </c>
       <c r="AR68" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AS68" t="s">
         <v>62</v>
@@ -10616,21 +10561,21 @@
         <v>83</v>
       </c>
     </row>
-    <row r="69" spans="1:47">
+    <row r="69" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="B69">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="C69">
-        <v>40</v>
-      </c>
-      <c r="D69" t="s">
-        <v>48</v>
+        <v>41</v>
+      </c>
+      <c r="D69">
+        <v>0.61480899999999994</v>
       </c>
       <c r="E69" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F69" t="s">
         <v>76</v>
@@ -10639,61 +10584,61 @@
         <v>8</v>
       </c>
       <c r="H69">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I69">
+        <v>95</v>
+      </c>
+      <c r="J69">
+        <v>26</v>
+      </c>
+      <c r="K69">
+        <v>10</v>
+      </c>
+      <c r="L69">
+        <v>91</v>
+      </c>
+      <c r="M69">
+        <v>-11.66</v>
+      </c>
+      <c r="N69">
+        <v>10.08</v>
+      </c>
+      <c r="O69">
+        <v>53</v>
+      </c>
+      <c r="P69">
+        <v>32</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>102</v>
+      </c>
+      <c r="R69" s="2">
+        <v>41</v>
+      </c>
+      <c r="S69" s="2">
+        <v>6</v>
+      </c>
+      <c r="T69" s="2">
         <v>100</v>
       </c>
-      <c r="J69">
+      <c r="U69" s="2">
+        <v>-6.78</v>
+      </c>
+      <c r="V69" s="2">
+        <v>10.08</v>
+      </c>
+      <c r="W69" s="2">
+        <v>30</v>
+      </c>
+      <c r="X69" s="2">
         <v>19</v>
       </c>
-      <c r="K69">
-        <v>6</v>
-      </c>
-      <c r="L69">
-        <v>95</v>
-      </c>
-      <c r="M69">
-        <v>12.5</v>
-      </c>
-      <c r="N69">
-        <v>8.1</v>
-      </c>
-      <c r="O69">
-        <v>54</v>
-      </c>
-      <c r="P69">
-        <v>35</v>
-      </c>
-      <c r="Q69">
-        <v>49</v>
-      </c>
-      <c r="R69">
-        <v>10.5</v>
-      </c>
-      <c r="S69">
-        <v>0.5</v>
-      </c>
-      <c r="T69">
-        <v>48.5</v>
-      </c>
-      <c r="U69">
-        <v>14.8</v>
-      </c>
-      <c r="V69">
-        <v>7.94</v>
-      </c>
-      <c r="W69">
-        <v>20.5</v>
-      </c>
-      <c r="X69">
-        <v>8.5</v>
-      </c>
       <c r="Y69" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="Z69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA69" t="s">
         <v>66</v>
@@ -10708,7 +10653,7 @@
         <v>53</v>
       </c>
       <c r="AE69" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AF69" t="s">
         <v>55</v>
@@ -10729,10 +10674,10 @@
         <v>8</v>
       </c>
       <c r="AL69" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="AM69" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AN69" t="s">
         <v>59</v>
@@ -10747,33 +10692,33 @@
         <v>59</v>
       </c>
       <c r="AR69" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS69" t="s">
         <v>62</v>
       </c>
       <c r="AT69" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="AU69" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="70" spans="1:47">
+    <row r="70" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B70">
         <v>1999</v>
       </c>
       <c r="C70">
-        <v>41.35</v>
+        <v>40</v>
       </c>
       <c r="D70" t="s">
         <v>48</v>
       </c>
       <c r="E70" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F70" t="s">
         <v>76</v>
@@ -10782,55 +10727,55 @@
         <v>8</v>
       </c>
       <c r="H70">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="I70">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="J70">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K70">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="L70">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="M70">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="N70">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
       <c r="O70">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="P70">
-        <v>38</v>
-      </c>
-      <c r="Q70">
-        <v>59.5</v>
-      </c>
-      <c r="R70">
-        <v>24</v>
-      </c>
-      <c r="S70">
-        <v>3</v>
-      </c>
-      <c r="T70">
-        <v>59</v>
-      </c>
-      <c r="U70">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="V70">
-        <v>7.92</v>
-      </c>
-      <c r="W70">
-        <v>24</v>
-      </c>
-      <c r="X70">
-        <v>10</v>
+        <v>35</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>49</v>
+      </c>
+      <c r="R70" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="S70" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="T70" s="2">
+        <v>48.5</v>
+      </c>
+      <c r="U70" s="2">
+        <v>14.8</v>
+      </c>
+      <c r="V70" s="2">
+        <v>7.94</v>
+      </c>
+      <c r="W70" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="X70" s="2">
+        <v>8.5</v>
       </c>
       <c r="Y70" t="s">
         <v>49</v>
@@ -10839,7 +10784,7 @@
         <v>3</v>
       </c>
       <c r="AA70" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="AB70" t="s">
         <v>51</v>
@@ -10851,7 +10796,7 @@
         <v>53</v>
       </c>
       <c r="AE70" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="AF70" t="s">
         <v>55</v>
@@ -10869,13 +10814,13 @@
         <v>58</v>
       </c>
       <c r="AK70">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AL70" t="s">
         <v>69</v>
       </c>
       <c r="AM70" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AN70" t="s">
         <v>59</v>
@@ -10896,27 +10841,27 @@
         <v>62</v>
       </c>
       <c r="AT70" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="AU70" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:47">
+    <row r="71" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="B71">
-        <v>2004</v>
+        <v>1999</v>
       </c>
       <c r="C71">
-        <v>45.65</v>
-      </c>
-      <c r="D71">
-        <v>0.69500000000000006</v>
+        <v>41.35</v>
+      </c>
+      <c r="D71" t="s">
+        <v>48</v>
       </c>
       <c r="E71" t="s">
-        <v>76</v>
+        <v>159</v>
       </c>
       <c r="F71" t="s">
         <v>76</v>
@@ -10924,65 +10869,65 @@
       <c r="G71">
         <v>8</v>
       </c>
-      <c r="H71" t="s">
-        <v>48</v>
+      <c r="H71">
+        <v>141</v>
       </c>
       <c r="I71">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J71">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="K71">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="L71">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="M71">
-        <v>-13.8</v>
+        <v>13</v>
       </c>
       <c r="N71">
-        <v>7.78</v>
+        <v>7.9</v>
       </c>
       <c r="O71">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="P71">
-        <v>43</v>
-      </c>
-      <c r="Q71">
-        <v>120</v>
-      </c>
-      <c r="R71">
-        <v>13</v>
-      </c>
-      <c r="S71">
-        <v>1</v>
-      </c>
-      <c r="T71">
-        <v>120</v>
-      </c>
-      <c r="U71">
-        <v>-12.5</v>
-      </c>
-      <c r="V71">
-        <v>7.78</v>
-      </c>
-      <c r="W71">
-        <v>60</v>
-      </c>
-      <c r="X71">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>59.5</v>
+      </c>
+      <c r="R71" s="2">
+        <v>24</v>
+      </c>
+      <c r="S71" s="2">
+        <v>3</v>
+      </c>
+      <c r="T71" s="2">
+        <v>59</v>
+      </c>
+      <c r="U71" s="2">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="V71" s="2">
+        <v>7.92</v>
+      </c>
+      <c r="W71" s="2">
+        <v>24</v>
+      </c>
+      <c r="X71" s="2">
+        <v>10</v>
       </c>
       <c r="Y71" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="Z71">
         <v>3</v>
       </c>
       <c r="AA71" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="AB71" t="s">
         <v>51</v>
@@ -11003,16 +10948,16 @@
         <v>56</v>
       </c>
       <c r="AH71" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="AI71">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ71" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="AK71">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AL71" t="s">
         <v>69</v>
@@ -11033,7 +10978,7 @@
         <v>59</v>
       </c>
       <c r="AR71" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AS71" t="s">
         <v>62</v>
@@ -11045,18 +10990,18 @@
         <v>83</v>
       </c>
     </row>
-    <row r="72" spans="1:47">
+    <row r="72" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C72">
-        <v>42.25</v>
-      </c>
-      <c r="D72" t="s">
-        <v>48</v>
+        <v>45.65</v>
+      </c>
+      <c r="D72">
+        <v>0.69500000000000006</v>
       </c>
       <c r="E72" t="s">
         <v>76</v>
@@ -11071,52 +11016,52 @@
         <v>48</v>
       </c>
       <c r="I72">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="J72">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K72">
         <v>7</v>
       </c>
       <c r="L72">
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="M72">
-        <v>-17.100000000000001</v>
+        <v>-13.8</v>
       </c>
       <c r="N72">
-        <v>9.25</v>
+        <v>7.78</v>
       </c>
       <c r="O72">
+        <v>81</v>
+      </c>
+      <c r="P72">
+        <v>43</v>
+      </c>
+      <c r="Q72" s="2">
         <v>120</v>
       </c>
-      <c r="P72">
-        <v>94</v>
-      </c>
-      <c r="Q72">
-        <v>199</v>
-      </c>
-      <c r="R72">
-        <v>32</v>
-      </c>
-      <c r="S72">
-        <v>10</v>
-      </c>
-      <c r="T72">
-        <v>197</v>
-      </c>
-      <c r="U72">
-        <v>-13.5</v>
-      </c>
-      <c r="V72">
-        <v>9.1199999999999992</v>
-      </c>
-      <c r="W72">
-        <v>91</v>
-      </c>
-      <c r="X72">
-        <v>63</v>
+      <c r="R72" s="2">
+        <v>13</v>
+      </c>
+      <c r="S72" s="2">
+        <v>1</v>
+      </c>
+      <c r="T72" s="2">
+        <v>120</v>
+      </c>
+      <c r="U72" s="2">
+        <v>-12.5</v>
+      </c>
+      <c r="V72" s="2">
+        <v>7.78</v>
+      </c>
+      <c r="W72" s="2">
+        <v>60</v>
+      </c>
+      <c r="X72" s="2">
+        <v>30</v>
       </c>
       <c r="Y72" t="s">
         <v>58</v>
@@ -11125,7 +11070,7 @@
         <v>3</v>
       </c>
       <c r="AA72" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AB72" t="s">
         <v>51</v>
@@ -11137,7 +11082,7 @@
         <v>53</v>
       </c>
       <c r="AE72" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AF72" t="s">
         <v>55</v>
@@ -11149,13 +11094,13 @@
         <v>68</v>
       </c>
       <c r="AI72">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AJ72" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="AK72">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AL72" t="s">
         <v>69</v>
@@ -11176,27 +11121,27 @@
         <v>59</v>
       </c>
       <c r="AR72" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AS72" t="s">
         <v>62</v>
       </c>
       <c r="AT72" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="AU72" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="73" spans="1:47">
+    <row r="73" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B73">
         <v>2005</v>
       </c>
       <c r="C73">
-        <v>44.3</v>
+        <v>42.25</v>
       </c>
       <c r="D73" t="s">
         <v>48</v>
@@ -11210,56 +11155,56 @@
       <c r="G73">
         <v>8</v>
       </c>
-      <c r="H73">
-        <v>85</v>
+      <c r="H73" t="s">
+        <v>48</v>
       </c>
       <c r="I73">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="J73">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="K73">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="L73">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="M73">
-        <v>-17</v>
+        <v>-17.100000000000001</v>
       </c>
       <c r="N73">
-        <v>10.56</v>
+        <v>9.25</v>
       </c>
       <c r="O73">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="P73">
-        <v>108</v>
-      </c>
-      <c r="Q73">
-        <v>189</v>
-      </c>
-      <c r="R73">
-        <v>43</v>
-      </c>
-      <c r="S73">
-        <v>11</v>
-      </c>
-      <c r="T73">
-        <v>186</v>
-      </c>
-      <c r="U73">
-        <v>-13.2</v>
-      </c>
-      <c r="V73">
-        <v>10.64</v>
-      </c>
-      <c r="W73">
+        <v>94</v>
+      </c>
+      <c r="Q73" s="2">
+        <v>199</v>
+      </c>
+      <c r="R73" s="2">
+        <v>32</v>
+      </c>
+      <c r="S73" s="2">
+        <v>10</v>
+      </c>
+      <c r="T73" s="2">
+        <v>197</v>
+      </c>
+      <c r="U73" s="2">
+        <v>-13.5</v>
+      </c>
+      <c r="V73" s="2">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="W73" s="2">
         <v>91</v>
       </c>
-      <c r="X73">
-        <v>71</v>
+      <c r="X73" s="2">
+        <v>63</v>
       </c>
       <c r="Y73" t="s">
         <v>58</v>
@@ -11280,7 +11225,7 @@
         <v>53</v>
       </c>
       <c r="AE73" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="AF73" t="s">
         <v>55</v>
@@ -11295,10 +11240,10 @@
         <v>18</v>
       </c>
       <c r="AJ73" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="AK73">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AL73" t="s">
         <v>69</v>
@@ -11325,27 +11270,27 @@
         <v>62</v>
       </c>
       <c r="AT73" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="AU73" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="74" spans="1:47">
+    <row r="74" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C74">
-        <v>71</v>
+        <v>44.3</v>
       </c>
       <c r="D74" t="s">
         <v>48</v>
       </c>
       <c r="E74" t="s">
-        <v>161</v>
+        <v>76</v>
       </c>
       <c r="F74" t="s">
         <v>76</v>
@@ -11353,65 +11298,65 @@
       <c r="G74">
         <v>8</v>
       </c>
-      <c r="H74" t="s">
-        <v>48</v>
+      <c r="H74">
+        <v>85</v>
       </c>
       <c r="I74">
-        <v>104</v>
+        <v>198</v>
       </c>
       <c r="J74">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K74">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="L74">
-        <v>93</v>
+        <v>193</v>
       </c>
       <c r="M74">
-        <v>14.8</v>
+        <v>-17</v>
       </c>
       <c r="N74">
-        <v>8.59</v>
+        <v>10.56</v>
       </c>
       <c r="O74">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="P74">
-        <v>25</v>
-      </c>
-      <c r="Q74">
-        <v>48</v>
-      </c>
-      <c r="R74">
-        <v>11.5</v>
-      </c>
-      <c r="S74">
-        <v>4.5</v>
-      </c>
-      <c r="T74">
-        <v>48</v>
-      </c>
-      <c r="U74">
-        <v>14.8</v>
-      </c>
-      <c r="V74">
-        <v>8.59</v>
-      </c>
-      <c r="W74">
-        <v>20</v>
-      </c>
-      <c r="X74">
-        <v>11.5</v>
+        <v>108</v>
+      </c>
+      <c r="Q74" s="2">
+        <v>189</v>
+      </c>
+      <c r="R74" s="2">
+        <v>43</v>
+      </c>
+      <c r="S74" s="2">
+        <v>11</v>
+      </c>
+      <c r="T74" s="2">
+        <v>186</v>
+      </c>
+      <c r="U74" s="2">
+        <v>-13.2</v>
+      </c>
+      <c r="V74" s="2">
+        <v>10.64</v>
+      </c>
+      <c r="W74" s="2">
+        <v>91</v>
+      </c>
+      <c r="X74" s="2">
+        <v>71</v>
       </c>
       <c r="Y74" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="Z74">
         <v>3</v>
       </c>
       <c r="AA74" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="AB74" t="s">
         <v>51</v>
@@ -11423,7 +11368,7 @@
         <v>53</v>
       </c>
       <c r="AE74" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AF74" t="s">
         <v>55</v>
@@ -11432,19 +11377,19 @@
         <v>56</v>
       </c>
       <c r="AH74" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="AI74">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ74" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="AK74">
         <v>8</v>
       </c>
       <c r="AL74" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="AM74" t="s">
         <v>59</v>
@@ -11462,90 +11407,90 @@
         <v>59</v>
       </c>
       <c r="AR74" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AS74" t="s">
         <v>62</v>
       </c>
       <c r="AT74" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="AU74" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:47">
+    <row r="75" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B75">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C75">
-        <v>40.25</v>
+        <v>71</v>
       </c>
       <c r="D75" t="s">
         <v>48</v>
       </c>
       <c r="E75" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F75" t="s">
         <v>76</v>
       </c>
       <c r="G75">
-        <v>6</v>
-      </c>
-      <c r="H75">
-        <v>142</v>
+        <v>8</v>
+      </c>
+      <c r="H75" t="s">
+        <v>48</v>
       </c>
       <c r="I75">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J75">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="K75">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L75">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M75">
-        <v>12.2</v>
+        <v>14.8</v>
       </c>
       <c r="N75">
         <v>8.59</v>
       </c>
       <c r="O75">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="P75">
-        <v>31</v>
-      </c>
-      <c r="Q75">
-        <v>51</v>
-      </c>
-      <c r="R75">
-        <v>12</v>
-      </c>
-      <c r="S75">
-        <v>1.5</v>
-      </c>
-      <c r="T75">
-        <v>50.5</v>
-      </c>
-      <c r="U75">
+        <v>25</v>
+      </c>
+      <c r="Q75" s="2">
+        <v>48</v>
+      </c>
+      <c r="R75" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="S75" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="T75" s="2">
+        <v>48</v>
+      </c>
+      <c r="U75" s="2">
         <v>14.8</v>
       </c>
-      <c r="V75">
+      <c r="V75" s="2">
         <v>8.59</v>
       </c>
-      <c r="W75">
-        <v>18.5</v>
-      </c>
-      <c r="X75">
-        <v>11</v>
+      <c r="W75" s="2">
+        <v>20</v>
+      </c>
+      <c r="X75" s="2">
+        <v>11.5</v>
       </c>
       <c r="Y75" t="s">
         <v>49</v>
@@ -11584,10 +11529,10 @@
         <v>58</v>
       </c>
       <c r="AK75">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AL75" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="AM75" t="s">
         <v>59</v>
@@ -11611,93 +11556,93 @@
         <v>62</v>
       </c>
       <c r="AT75" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="AU75" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="76" spans="1:47">
+    <row r="76" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="B76">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="C76">
-        <v>38.450000000000003</v>
-      </c>
-      <c r="D76">
-        <v>0.49294099999999996</v>
+        <v>40.25</v>
+      </c>
+      <c r="D76" t="s">
+        <v>48</v>
       </c>
       <c r="E76" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F76" t="s">
         <v>76</v>
       </c>
       <c r="G76">
-        <v>8</v>
-      </c>
-      <c r="H76" t="s">
-        <v>48</v>
+        <v>6</v>
+      </c>
+      <c r="H76">
+        <v>142</v>
       </c>
       <c r="I76">
-        <v>180</v>
+        <v>102</v>
       </c>
       <c r="J76">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K76">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L76">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="M76">
-        <v>-10.37</v>
+        <v>12.2</v>
       </c>
       <c r="N76">
-        <v>6.52</v>
-      </c>
-      <c r="O76" t="s">
-        <v>48</v>
-      </c>
-      <c r="P76" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q76">
-        <v>92</v>
-      </c>
-      <c r="R76">
-        <v>8.5</v>
-      </c>
-      <c r="S76">
-        <v>1</v>
-      </c>
-      <c r="T76">
-        <v>92</v>
-      </c>
-      <c r="U76">
-        <v>-9.25</v>
-      </c>
-      <c r="V76">
-        <v>6.51</v>
-      </c>
-      <c r="W76" t="s">
-        <v>48</v>
-      </c>
-      <c r="X76" t="s">
-        <v>48</v>
+        <v>8.59</v>
+      </c>
+      <c r="O76">
+        <v>51</v>
+      </c>
+      <c r="P76">
+        <v>31</v>
+      </c>
+      <c r="Q76" s="2">
+        <v>51</v>
+      </c>
+      <c r="R76" s="2">
+        <v>12</v>
+      </c>
+      <c r="S76" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="T76" s="2">
+        <v>50.5</v>
+      </c>
+      <c r="U76" s="2">
+        <v>14.8</v>
+      </c>
+      <c r="V76" s="2">
+        <v>8.59</v>
+      </c>
+      <c r="W76" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="X76" s="2">
+        <v>11</v>
       </c>
       <c r="Y76" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="Z76">
         <v>3</v>
       </c>
       <c r="AA76" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="AB76" t="s">
         <v>51</v>
@@ -11709,7 +11654,7 @@
         <v>53</v>
       </c>
       <c r="AE76" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="AF76" t="s">
         <v>55</v>
@@ -11718,16 +11663,16 @@
         <v>56</v>
       </c>
       <c r="AH76" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="AI76">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AJ76" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="AK76">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AL76" t="s">
         <v>69</v>
@@ -11745,25 +11690,168 @@
         <v>60</v>
       </c>
       <c r="AQ76" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AR76" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AS76" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AT76" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="AU76" t="s">
         <v>71</v>
       </c>
     </row>
+    <row r="77" spans="1:47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" t="s">
+        <v>156</v>
+      </c>
+      <c r="B77">
+        <v>2011</v>
+      </c>
+      <c r="C77">
+        <v>38.450000000000003</v>
+      </c>
+      <c r="D77">
+        <v>0.49294099999999996</v>
+      </c>
+      <c r="E77" t="s">
+        <v>159</v>
+      </c>
+      <c r="F77" t="s">
+        <v>76</v>
+      </c>
+      <c r="G77">
+        <v>8</v>
+      </c>
+      <c r="H77" t="s">
+        <v>48</v>
+      </c>
+      <c r="I77">
+        <v>180</v>
+      </c>
+      <c r="J77">
+        <v>22</v>
+      </c>
+      <c r="K77">
+        <v>9</v>
+      </c>
+      <c r="L77">
+        <v>177</v>
+      </c>
+      <c r="M77">
+        <v>-10.37</v>
+      </c>
+      <c r="N77">
+        <v>6.52</v>
+      </c>
+      <c r="O77" t="s">
+        <v>48</v>
+      </c>
+      <c r="P77" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q77" s="2">
+        <v>92</v>
+      </c>
+      <c r="R77" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="S77" s="2">
+        <v>1</v>
+      </c>
+      <c r="T77" s="2">
+        <v>92</v>
+      </c>
+      <c r="U77" s="2">
+        <v>-9.25</v>
+      </c>
+      <c r="V77" s="2">
+        <v>6.51</v>
+      </c>
+      <c r="W77" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="X77" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z77">
+        <v>3</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE77" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF77" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG77" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH77" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI77">
+        <v>26</v>
+      </c>
+      <c r="AJ77" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK77">
+        <v>8</v>
+      </c>
+      <c r="AL77" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM77" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN77" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO77" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP77" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ77" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR77" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS77" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT77" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU77" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:AV76">
-    <sortCondition ref="F2:F76"/>
-    <sortCondition ref="B2:B76"/>
+  <sortState ref="A2:AV77">
+    <sortCondition ref="F2:F77"/>
+    <sortCondition ref="B2:B77"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
